--- a/saa/U2/recursos/datos_viviendas.xlsx
+++ b/saa/U2/recursos/datos_viviendas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gvaedu-my.sharepoint.com/personal/j_rosarodriguez_edu_gva_es/Documents/SAA/SAA_U02-Supervisado 1/SAA_U02_P03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D03A5A0F-48A5-48F6-B48F-D1A1B4BCA662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E9976E-3916-4EBA-8F11-7F499D491BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="118">
   <si>
     <t>josrosrod_origen</t>
   </si>
@@ -99,7 +99,7 @@
     <t>rauramesc_airecentral</t>
   </si>
   <si>
-    <t>M</t>
+    <t>guifue_parking</t>
   </si>
   <si>
     <t>Fotocasa</t>
@@ -108,54 +108,27 @@
     <t>Benetuser</t>
   </si>
   <si>
-    <t>-0.395</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
     <t>Sureste</t>
   </si>
   <si>
-    <t>-0.398</t>
-  </si>
-  <si>
     <t>Este</t>
   </si>
   <si>
-    <t>-0.3987</t>
-  </si>
-  <si>
-    <t>-0.3990</t>
-  </si>
-  <si>
     <t>Sur</t>
   </si>
   <si>
-    <t>-0.3985</t>
-  </si>
-  <si>
     <t>Baja</t>
   </si>
   <si>
     <t>Oeste</t>
   </si>
   <si>
-    <t>-0.3950</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
-    <t>-0.3978</t>
-  </si>
-  <si>
-    <t>-0.3979</t>
-  </si>
-  <si>
-    <t>-0.3995</t>
-  </si>
-  <si>
     <t>Noreste</t>
   </si>
   <si>
@@ -165,33 +138,9 @@
     <t>Paterna</t>
   </si>
   <si>
-    <t>-0.3984</t>
-  </si>
-  <si>
-    <t>-0.3753</t>
-  </si>
-  <si>
-    <t>-0.4012</t>
-  </si>
-  <si>
-    <t>-0.3754</t>
-  </si>
-  <si>
     <t>Norte</t>
   </si>
   <si>
-    <t>-0.3967</t>
-  </si>
-  <si>
-    <t>-0.3802</t>
-  </si>
-  <si>
-    <t>-0.3729</t>
-  </si>
-  <si>
-    <t>-0.3763</t>
-  </si>
-  <si>
     <t>Ademuz</t>
   </si>
   <si>
@@ -222,9 +171,6 @@
     <t>Benetúser</t>
   </si>
   <si>
-    <t>-0.594758</t>
-  </si>
-  <si>
     <t>Tucasa</t>
   </si>
   <si>
@@ -237,9 +183,6 @@
     <t>Torrefiel</t>
   </si>
   <si>
-    <t>-0.380833</t>
-  </si>
-  <si>
     <t>baja</t>
   </si>
   <si>
@@ -255,9 +198,6 @@
     <t>Paiporta</t>
   </si>
   <si>
-    <t xml:space="preserve"> -0.4167</t>
-  </si>
-  <si>
     <t>39,4250.0</t>
   </si>
   <si>
@@ -267,258 +207,84 @@
     <t>j-</t>
   </si>
   <si>
-    <t xml:space="preserve"> -0.4168</t>
-  </si>
-  <si>
     <t>39,4251.0</t>
   </si>
   <si>
-    <t xml:space="preserve"> -0.4169</t>
-  </si>
-  <si>
     <t>39,4252.0</t>
   </si>
   <si>
     <t>Sud</t>
   </si>
   <si>
-    <t xml:space="preserve"> -0.4170</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.4171</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.4172</t>
-  </si>
-  <si>
     <t>39,4255.0</t>
   </si>
   <si>
-    <t xml:space="preserve"> -0.4173</t>
-  </si>
-  <si>
     <t>39,4256.0</t>
   </si>
   <si>
-    <t xml:space="preserve"> -0.4174</t>
-  </si>
-  <si>
     <t>39,4257.0</t>
   </si>
   <si>
-    <t xml:space="preserve"> -0.4175</t>
-  </si>
-  <si>
     <t>39,4258.0</t>
   </si>
   <si>
-    <t xml:space="preserve"> -0.4176</t>
-  </si>
-  <si>
     <t>39,4259.0</t>
   </si>
   <si>
     <t>Catarroja</t>
   </si>
   <si>
-    <t>-0.385</t>
-  </si>
-  <si>
-    <t>-1.390</t>
-  </si>
-  <si>
     <t>Habitaclia</t>
   </si>
   <si>
-    <t>-0.387</t>
-  </si>
-  <si>
-    <t>-2.388</t>
-  </si>
-  <si>
-    <t>-0.389</t>
-  </si>
-  <si>
     <t>Albal</t>
   </si>
   <si>
-    <t>-1.400</t>
-  </si>
-  <si>
-    <t>-0.402</t>
-  </si>
-  <si>
-    <t>-2.405</t>
-  </si>
-  <si>
-    <t>-0.408</t>
-  </si>
-  <si>
-    <t>-0.410</t>
-  </si>
-  <si>
     <t>Calicanto</t>
   </si>
   <si>
-    <t>39.429684</t>
-  </si>
-  <si>
-    <t>-0.582855</t>
-  </si>
-  <si>
-    <t>39.43210</t>
-  </si>
-  <si>
-    <t>-0.4713619</t>
-  </si>
-  <si>
-    <t>39.40903</t>
-  </si>
-  <si>
-    <t>-0.4835872</t>
-  </si>
-  <si>
-    <t>39.43043</t>
-  </si>
-  <si>
-    <t>-0.4751260</t>
-  </si>
-  <si>
-    <t>39.45557</t>
-  </si>
-  <si>
-    <t>-0.378598</t>
-  </si>
-  <si>
-    <t>39.443089</t>
-  </si>
-  <si>
-    <t>-0.4707310</t>
-  </si>
-  <si>
-    <t>39.39933</t>
-  </si>
-  <si>
-    <t>-0.531695</t>
-  </si>
-  <si>
-    <t>39.42343</t>
-  </si>
-  <si>
-    <t>-0.4731250</t>
-  </si>
-  <si>
-    <t>39.42227</t>
-  </si>
-  <si>
-    <t>-0.4731110</t>
-  </si>
-  <si>
-    <t>39.36782</t>
-  </si>
-  <si>
-    <t>-0.4728338</t>
-  </si>
-  <si>
-    <t>-0.414</t>
-  </si>
-  <si>
     <t>Idealista.com</t>
   </si>
   <si>
-    <t>-0.360</t>
-  </si>
-  <si>
     <t>Sedaví</t>
   </si>
   <si>
-    <t>-0.380</t>
-  </si>
-  <si>
     <t>Campanar</t>
   </si>
   <si>
-    <t>-0.358</t>
-  </si>
-  <si>
     <t>Godella</t>
   </si>
   <si>
     <t>Ciutat Vella</t>
   </si>
   <si>
-    <t>-0.333</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>Rocafort</t>
   </si>
   <si>
-    <t>-0.445</t>
-  </si>
-  <si>
     <t>Los monasterios</t>
   </si>
   <si>
-    <t>-0.341</t>
-  </si>
-  <si>
-    <t>-0.366</t>
-  </si>
-  <si>
     <t>Turis</t>
   </si>
   <si>
-    <t>-0.714</t>
-  </si>
-  <si>
     <t>Almenara</t>
   </si>
   <si>
-    <t>-0.224</t>
-  </si>
-  <si>
-    <t>-0.186</t>
-  </si>
-  <si>
     <t>Benifaraig</t>
   </si>
   <si>
-    <t>-0.384</t>
-  </si>
-  <si>
     <t>Tavernes Blanques</t>
   </si>
   <si>
-    <t>-0.363</t>
-  </si>
-  <si>
-    <t>-0.367</t>
-  </si>
-  <si>
     <t>Pobla de Vallbona</t>
   </si>
   <si>
-    <t>-0.552</t>
-  </si>
-  <si>
-    <t>-0.551</t>
-  </si>
-  <si>
     <t>Milanuncios</t>
   </si>
   <si>
     <t>Sueca</t>
   </si>
   <si>
-    <t>-0.311</t>
-  </si>
-  <si>
-    <t>-0.313</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sur</t>
   </si>
   <si>
@@ -543,156 +309,27 @@
     <t>alameda10dt.es</t>
   </si>
   <si>
-    <t>-0.375075</t>
+    <t>-0,375075</t>
   </si>
   <si>
     <t>oeste</t>
   </si>
   <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>-0.3830177191428401</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>-0.32991775431214615</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>-0.3648921485253092</t>
-  </si>
-  <si>
-    <t>2.91</t>
-  </si>
-  <si>
-    <t>-0.37950458238285023</t>
-  </si>
-  <si>
-    <t>-0.3492569892495662</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>-0.39251761993392376</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>-0.3570236757560026</t>
-  </si>
-  <si>
-    <t>3.29</t>
-  </si>
-  <si>
     <t>Bétera</t>
   </si>
   <si>
-    <t>-0.4635036769179312</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>-0,32684636596238953</t>
-  </si>
-  <si>
-    <t>8.62</t>
-  </si>
-  <si>
-    <t>-0.47950187541283074</t>
-  </si>
-  <si>
-    <t>-0.47982373786436394</t>
-  </si>
-  <si>
-    <t>-0.46938795521254023</t>
-  </si>
-  <si>
-    <t>-0.4783987614498772</t>
-  </si>
-  <si>
-    <t>-0.46617191049480894</t>
-  </si>
-  <si>
-    <t>-0.4758350478059968</t>
-  </si>
-  <si>
-    <t>-0.46306052086821786</t>
-  </si>
-  <si>
     <t>IDEALISTA</t>
   </si>
   <si>
     <t>MISLATA</t>
   </si>
   <si>
-    <t>-0.421044</t>
-  </si>
-  <si>
-    <t>4.23</t>
-  </si>
-  <si>
-    <t>-0.419108</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>-0.414866</t>
-  </si>
-  <si>
-    <t>3.43</t>
-  </si>
-  <si>
     <t>FOTOCASA</t>
   </si>
   <si>
-    <t>-0.427807</t>
-  </si>
-  <si>
-    <t>4.38</t>
-  </si>
-  <si>
-    <t>-0.414999</t>
-  </si>
-  <si>
-    <t>3.11</t>
-  </si>
-  <si>
     <t>ALFAMISLATA</t>
   </si>
   <si>
-    <t>-0.415355</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>-0.418277</t>
-  </si>
-  <si>
-    <t>3.09</t>
-  </si>
-  <si>
-    <t>-0.418575</t>
-  </si>
-  <si>
-    <t>3.91</t>
-  </si>
-  <si>
-    <t>-0.423048</t>
-  </si>
-  <si>
-    <t>-0.412346</t>
-  </si>
-  <si>
     <t>josrosrod_autor</t>
   </si>
   <si>
@@ -736,16 +373,35 @@
   </si>
   <si>
     <t>Planta o nivel donde se encuentra la casa/piso (1ª, 2ª, 5ª, etc.). Si se trata de una casa con varias plantas, entonces la planta de la puerta de entrada.</t>
+  </si>
+  <si>
+    <t>Jose Rosa guapo</t>
+  </si>
+  <si>
+    <t>Número de baños de la vivienda</t>
+  </si>
+  <si>
+    <t>Valor binario, si tiene ascensor 1, sino 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero de habitaciones </t>
+  </si>
+  <si>
+    <t>Distancia al centro</t>
+  </si>
+  <si>
+    <t>Numero de terrazas disponibles en la vivienda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,6 +452,12 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1017,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1106,20 +768,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1135,9 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1167,15 +814,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -1185,6 +823,41 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1521,12 +1194,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S164" sqref="S164"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="N3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -1552,7 +1225,7 @@
     <col min="22" max="22" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15">
+    <row r="1" spans="1:21">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15">
+    <row r="2" spans="1:21">
       <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
@@ -1633,29 +1306,29 @@
       <c r="E2" s="17">
         <v>2025</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="45">
+      <c r="F2" s="53">
+        <v>-0.39500000000000002</v>
+      </c>
+      <c r="G2" s="40">
         <v>39.417999999999999</v>
       </c>
       <c r="H2" s="19">
         <v>140000</v>
       </c>
       <c r="I2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0</v>
+      </c>
+      <c r="K2" s="17">
+        <v>1</v>
+      </c>
+      <c r="L2" s="17">
+        <v>1</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="J2" s="17">
-        <v>0</v>
-      </c>
-      <c r="K2" s="17">
-        <v>1</v>
-      </c>
-      <c r="L2" s="17">
-        <v>1</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>25</v>
       </c>
       <c r="N2" s="17">
         <v>81</v>
@@ -1682,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15">
+    <row r="3" spans="1:21">
       <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
@@ -1698,17 +1371,17 @@
       <c r="E3" s="19">
         <v>2025</v>
       </c>
-      <c r="F3" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="45">
+      <c r="F3" s="54">
+        <v>-0.39800000000000002</v>
+      </c>
+      <c r="G3" s="40">
         <v>39.417000000000002</v>
       </c>
       <c r="H3" s="19">
         <v>85000</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="19">
         <v>0</v>
@@ -1720,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N3" s="19">
         <v>161</v>
@@ -1747,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15">
+    <row r="4" spans="1:21">
       <c r="A4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1763,17 +1436,17 @@
       <c r="E4" s="19">
         <v>2025</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="45">
+      <c r="F4" s="53">
+        <v>-0.3987</v>
+      </c>
+      <c r="G4" s="40">
         <v>39.414900000000003</v>
       </c>
       <c r="H4" s="19">
         <v>225000</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="19">
         <v>0</v>
@@ -1785,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N4" s="19">
         <v>179</v>
@@ -1812,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15">
+    <row r="5" spans="1:21">
       <c r="A5" s="19" t="s">
         <v>21</v>
       </c>
@@ -1828,17 +1501,17 @@
       <c r="E5" s="19">
         <v>2025</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="45">
+      <c r="F5" s="54">
+        <v>-0.39900000000000002</v>
+      </c>
+      <c r="G5" s="40">
         <v>39.414499999999997</v>
       </c>
       <c r="H5" s="19">
         <v>129999</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="19">
         <v>0</v>
@@ -1850,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N5" s="19">
         <v>89</v>
@@ -1877,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15">
+    <row r="6" spans="1:21">
       <c r="A6" s="19" t="s">
         <v>21</v>
       </c>
@@ -1893,17 +1566,17 @@
       <c r="E6" s="19">
         <v>2025</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="46">
+      <c r="F6" s="54">
+        <v>-0.39850000000000002</v>
+      </c>
+      <c r="G6" s="41">
         <v>39.4133</v>
       </c>
       <c r="H6" s="19">
         <v>145000</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J6" s="19">
         <v>0</v>
@@ -1915,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N6" s="19">
         <v>55</v>
@@ -1942,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15">
+    <row r="7" spans="1:21">
       <c r="A7" s="19" t="s">
         <v>21</v>
       </c>
@@ -1958,17 +1631,17 @@
       <c r="E7" s="19">
         <v>2025</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="45">
+      <c r="F7" s="53">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="G7" s="40">
         <v>39.417999999999999</v>
       </c>
       <c r="H7" s="19">
         <v>150000</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J7" s="19">
         <v>0</v>
@@ -1980,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N7" s="19">
         <v>111</v>
@@ -2007,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15">
+    <row r="8" spans="1:21">
       <c r="A8" s="19" t="s">
         <v>21</v>
       </c>
@@ -2023,17 +1696,17 @@
       <c r="E8" s="19">
         <v>2025</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="46">
+      <c r="F8" s="53">
+        <v>-0.39779999999999999</v>
+      </c>
+      <c r="G8" s="41">
         <v>39.323</v>
       </c>
       <c r="H8" s="19">
         <v>236000</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" s="19">
         <v>0</v>
@@ -2045,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N8" s="19">
         <v>218</v>
@@ -2072,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15">
+    <row r="9" spans="1:21">
       <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
@@ -2088,17 +1761,17 @@
       <c r="E9" s="19">
         <v>2025</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="45">
+      <c r="F9" s="54">
+        <v>-0.39789999999999998</v>
+      </c>
+      <c r="G9" s="40">
         <v>39.414400000000001</v>
       </c>
       <c r="H9" s="19">
         <v>139999</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="19">
         <v>0</v>
@@ -2110,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N9" s="19">
         <v>81</v>
@@ -2137,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15">
+    <row r="10" spans="1:21">
       <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
@@ -2153,17 +1826,17 @@
       <c r="E10" s="19">
         <v>2025</v>
       </c>
-      <c r="F10" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="45">
+      <c r="F10" s="54">
+        <v>-0.39850000000000002</v>
+      </c>
+      <c r="G10" s="40">
         <v>39.4146</v>
       </c>
       <c r="H10" s="19">
         <v>246000</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="19">
         <v>0</v>
@@ -2175,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N10" s="19">
         <v>130</v>
@@ -2202,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15">
+    <row r="11" spans="1:21">
       <c r="A11" s="19" t="s">
         <v>21</v>
       </c>
@@ -2218,17 +1891,17 @@
       <c r="E11" s="19">
         <v>2025</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="45">
+      <c r="F11" s="53">
+        <v>-0.39950000000000002</v>
+      </c>
+      <c r="G11" s="40">
         <v>39.417499999999997</v>
       </c>
       <c r="H11" s="19">
         <v>150000</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J11" s="19">
         <v>0</v>
@@ -2240,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N11" s="19">
         <v>109</v>
@@ -2267,12 +1940,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15">
+    <row r="12" spans="1:21">
       <c r="A12" s="22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C12" s="22">
         <v>14</v>
@@ -2283,17 +1956,17 @@
       <c r="E12" s="22">
         <v>2025</v>
       </c>
-      <c r="F12" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="47">
+      <c r="F12" s="55">
+        <v>-0.39839999999999998</v>
+      </c>
+      <c r="G12" s="42">
         <v>39.482700000000001</v>
       </c>
       <c r="H12" s="23">
         <v>150000</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J12" s="22">
         <v>1</v>
@@ -2305,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N12" s="22">
         <v>90</v>
@@ -2332,12 +2005,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15">
+    <row r="13" spans="1:21">
       <c r="A13" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C13" s="22">
         <v>14</v>
@@ -2348,17 +2021,17 @@
       <c r="E13" s="22">
         <v>2025</v>
       </c>
-      <c r="F13" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="47">
+      <c r="F13" s="55">
+        <v>-0.37530000000000002</v>
+      </c>
+      <c r="G13" s="42">
         <v>39.469900000000003</v>
       </c>
       <c r="H13" s="23">
         <v>220000</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J13" s="22">
         <v>0</v>
@@ -2370,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N13" s="22">
         <v>70</v>
@@ -2397,12 +2070,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15">
+    <row r="14" spans="1:21">
       <c r="A14" s="22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C14" s="22">
         <v>14</v>
@@ -2413,17 +2086,17 @@
       <c r="E14" s="22">
         <v>2025</v>
       </c>
-      <c r="F14" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="48">
+      <c r="F14" s="55">
+        <v>-0.4012</v>
+      </c>
+      <c r="G14" s="43">
         <v>39.478499999999997</v>
       </c>
       <c r="H14" s="23">
         <v>180000</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14" s="22">
         <v>1</v>
@@ -2435,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N14" s="22">
         <v>100</v>
@@ -2462,12 +2135,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15">
+    <row r="15" spans="1:21">
       <c r="A15" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C15" s="22">
         <v>14</v>
@@ -2478,17 +2151,17 @@
       <c r="E15" s="22">
         <v>2025</v>
       </c>
-      <c r="F15" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="47">
+      <c r="F15" s="55">
+        <v>-0.37540000000000001</v>
+      </c>
+      <c r="G15" s="42">
         <v>39.469000000000001</v>
       </c>
       <c r="H15" s="23">
         <v>210000</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J15" s="22">
         <v>0</v>
@@ -2500,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N15" s="22">
         <v>85</v>
@@ -2527,12 +2200,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15">
+    <row r="16" spans="1:21">
       <c r="A16" s="22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C16" s="22">
         <v>14</v>
@@ -2543,17 +2216,17 @@
       <c r="E16" s="22">
         <v>2025</v>
       </c>
-      <c r="F16" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="47">
+      <c r="F16" s="55">
+        <v>-0.3967</v>
+      </c>
+      <c r="G16" s="42">
         <v>39.482300000000002</v>
       </c>
       <c r="H16" s="23">
         <v>260000</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J16" s="22">
         <v>1</v>
@@ -2565,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N16" s="22">
         <v>110</v>
@@ -2592,12 +2265,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15">
+    <row r="17" spans="1:21">
       <c r="A17" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C17" s="22">
         <v>14</v>
@@ -2608,17 +2281,17 @@
       <c r="E17" s="22">
         <v>2025</v>
       </c>
-      <c r="F17" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="47">
+      <c r="F17" s="55">
+        <v>-0.38019999999999998</v>
+      </c>
+      <c r="G17" s="42">
         <v>39.472799999999999</v>
       </c>
       <c r="H17" s="23">
         <v>195000</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" s="22">
         <v>0</v>
@@ -2630,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N17" s="22">
         <v>75</v>
@@ -2657,12 +2330,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15">
+    <row r="18" spans="1:21">
       <c r="A18" s="22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C18" s="22">
         <v>14</v>
@@ -2673,17 +2346,17 @@
       <c r="E18" s="22">
         <v>2025</v>
       </c>
-      <c r="F18" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="47">
+      <c r="F18" s="55">
+        <v>-0.39779999999999999</v>
+      </c>
+      <c r="G18" s="42">
         <v>39.479100000000003</v>
       </c>
       <c r="H18" s="23">
         <v>230000</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J18" s="22">
         <v>1</v>
@@ -2695,7 +2368,7 @@
         <v>3</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N18" s="22">
         <v>120</v>
@@ -2722,12 +2395,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15">
+    <row r="19" spans="1:21">
       <c r="A19" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C19" s="22">
         <v>14</v>
@@ -2738,17 +2411,17 @@
       <c r="E19" s="22">
         <v>2025</v>
       </c>
-      <c r="F19" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="47">
+      <c r="F19" s="55">
+        <v>-0.37290000000000001</v>
+      </c>
+      <c r="G19" s="42">
         <v>39.460299999999997</v>
       </c>
       <c r="H19" s="23">
         <v>210000</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J19" s="22">
         <v>0</v>
@@ -2760,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N19" s="22">
         <v>95</v>
@@ -2787,12 +2460,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15">
+    <row r="20" spans="1:21">
       <c r="A20" s="22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C20" s="22">
         <v>14</v>
@@ -2803,17 +2476,17 @@
       <c r="E20" s="22">
         <v>2025</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="47">
+      <c r="F20" s="55">
+        <v>-0.39900000000000002</v>
+      </c>
+      <c r="G20" s="42">
         <v>39.481200000000001</v>
       </c>
       <c r="H20" s="23">
         <v>270000</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J20" s="22">
         <v>1</v>
@@ -2825,7 +2498,7 @@
         <v>4</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N20" s="22">
         <v>130</v>
@@ -2852,12 +2525,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15">
+    <row r="21" spans="1:21">
       <c r="A21" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C21" s="22">
         <v>14</v>
@@ -2868,17 +2541,17 @@
       <c r="E21" s="22">
         <v>2025</v>
       </c>
-      <c r="F21" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="47">
+      <c r="F21" s="55">
+        <v>-0.37630000000000002</v>
+      </c>
+      <c r="G21" s="42">
         <v>39.473599999999998</v>
       </c>
       <c r="H21" s="23">
         <v>724000</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J21" s="22">
         <v>1</v>
@@ -2890,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N21" s="22">
         <v>290</v>
@@ -2917,12 +2590,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15">
+    <row r="22" spans="1:21">
       <c r="A22" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C22" s="19">
         <v>12</v>
@@ -2933,17 +2606,17 @@
       <c r="E22" s="19">
         <v>2025</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="53">
         <v>-1.174301</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="40">
         <v>40.067221000000004</v>
       </c>
       <c r="H22" s="19">
         <v>5000</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J22" s="19">
         <v>0</v>
@@ -2955,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N22" s="19">
         <v>74</v>
@@ -2973,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="19">
-        <v>131</v>
+        <v>13.1</v>
       </c>
       <c r="T22" s="19">
         <v>0</v>
@@ -2982,12 +2655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15">
+    <row r="23" spans="1:21">
       <c r="A23" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C23" s="19">
         <v>23</v>
@@ -2998,17 +2671,17 @@
       <c r="E23" s="19">
         <v>2024</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="53">
         <v>-0.32727200000000001</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="40">
         <v>39.678080000000001</v>
       </c>
       <c r="H23" s="19">
         <v>795000</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J23" s="19">
         <v>0</v>
@@ -3020,7 +2693,7 @@
         <v>3</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N23" s="19">
         <v>430</v>
@@ -3047,12 +2720,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15">
+    <row r="24" spans="1:21">
       <c r="A24" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C24" s="19">
         <v>30</v>
@@ -3063,17 +2736,17 @@
       <c r="E24" s="19">
         <v>2025</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="53">
         <v>-1.2872726999999999</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="40">
         <v>40.061593299999998</v>
       </c>
       <c r="H24" s="19">
         <v>100000</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J24" s="19">
         <v>0</v>
@@ -3085,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N24" s="19">
         <v>275</v>
@@ -3103,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="19">
-        <v>132</v>
+        <v>13.2</v>
       </c>
       <c r="T24" s="19">
         <v>0</v>
@@ -3112,12 +2785,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15">
+    <row r="25" spans="1:21">
       <c r="A25" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C25" s="19">
         <v>1</v>
@@ -3128,17 +2801,17 @@
       <c r="E25" s="19">
         <v>2024</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="53">
         <v>-0.322189</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="40">
         <v>39.682693</v>
       </c>
       <c r="H25" s="19">
         <v>57120</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J25" s="19">
         <v>1</v>
@@ -3150,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N25" s="19">
         <v>153</v>
@@ -3177,12 +2850,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15">
+    <row r="26" spans="1:21">
       <c r="A26" s="19" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C26" s="19">
         <v>14</v>
@@ -3193,17 +2866,17 @@
       <c r="E26" s="19">
         <v>2025</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="53">
         <v>-0.35424899999999998</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="40">
         <v>39.474536999999998</v>
       </c>
       <c r="H26" s="19">
         <v>239000</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J26" s="19">
         <v>0</v>
@@ -3215,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N26" s="19">
         <v>104</v>
@@ -3242,12 +2915,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15">
+    <row r="27" spans="1:21">
       <c r="A27" s="19" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C27" s="19">
         <v>14</v>
@@ -3258,17 +2931,17 @@
       <c r="E27" s="19">
         <v>2025</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="53">
         <v>-0.34101199999999998</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="40">
         <v>39.463835000000003</v>
       </c>
       <c r="H27" s="19">
         <v>415000</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J27" s="19">
         <v>0</v>
@@ -3280,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N27" s="19">
         <v>120</v>
@@ -3307,12 +2980,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15">
+    <row r="28" spans="1:21">
       <c r="A28" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C28" s="19">
         <v>14</v>
@@ -3323,17 +2996,17 @@
       <c r="E28" s="19">
         <v>2025</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="53">
         <v>-0.54119200000000001</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="40">
         <v>39.557380000000002</v>
       </c>
       <c r="H28" s="19">
         <v>600000</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J28" s="19">
         <v>1</v>
@@ -3345,7 +3018,7 @@
         <v>3</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N28" s="19">
         <v>212</v>
@@ -3372,12 +3045,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15">
+    <row r="29" spans="1:21">
       <c r="A29" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C29" s="19">
         <v>14</v>
@@ -3388,17 +3061,17 @@
       <c r="E29" s="19">
         <v>2025</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="53">
         <v>-0.38086599999999998</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="40">
         <v>39.456159999999997</v>
       </c>
       <c r="H29" s="19">
         <v>350000</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J29" s="19">
         <v>0</v>
@@ -3410,7 +3083,7 @@
         <v>3</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N29" s="19">
         <v>106</v>
@@ -3437,12 +3110,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15">
+    <row r="30" spans="1:21">
       <c r="A30" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C30" s="19">
         <v>11</v>
@@ -3453,17 +3126,17 @@
       <c r="E30" s="19">
         <v>2025</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="53">
         <v>-0.46329599999999999</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="40">
         <v>39.359484999999999</v>
       </c>
       <c r="H30" s="19">
         <v>44500</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J30" s="19">
         <v>0</v>
@@ -3475,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N30" s="19">
         <v>136</v>
@@ -3502,12 +3175,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15">
+    <row r="31" spans="1:21">
       <c r="A31" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="C31" s="19">
         <v>6</v>
@@ -3518,17 +3191,17 @@
       <c r="E31" s="19">
         <v>2025</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="53">
         <v>0.467111</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="40">
         <v>39.439608999999997</v>
       </c>
       <c r="H31" s="19">
         <v>17000</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J31" s="19">
         <v>0</v>
@@ -3540,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N31" s="19">
         <v>76</v>
@@ -3567,12 +3240,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15">
+    <row r="32" spans="1:21">
       <c r="A32" s="19" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C32" s="31">
         <v>12</v>
@@ -3583,17 +3256,17 @@
       <c r="E32" s="31">
         <v>2025</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="53">
         <v>-0.415302</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="40">
         <v>39.513092999999998</v>
       </c>
       <c r="H32" s="31">
         <v>145000</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J32" s="31">
         <v>0</v>
@@ -3605,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N32" s="25">
         <v>96</v>
@@ -3632,12 +3305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15">
+    <row r="33" spans="1:21">
       <c r="A33" s="19" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C33" s="19">
         <v>27</v>
@@ -3648,17 +3321,17 @@
       <c r="E33" s="19">
         <v>2025</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="53">
         <v>-0.41869600000000001</v>
       </c>
-      <c r="G33" s="45">
+      <c r="G33" s="40">
         <v>39.517443</v>
       </c>
       <c r="H33" s="19">
         <v>280000</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J33" s="19">
         <v>1</v>
@@ -3670,7 +3343,7 @@
         <v>2</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N33" s="19">
         <v>105</v>
@@ -3697,12 +3370,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15">
+    <row r="34" spans="1:21">
       <c r="A34" s="19" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C34" s="19">
         <v>5</v>
@@ -3713,17 +3386,17 @@
       <c r="E34" s="19">
         <v>2025</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="53">
         <v>-0.41413</v>
       </c>
-      <c r="G34" s="45">
+      <c r="G34" s="40">
         <v>39.512917999999999</v>
       </c>
       <c r="H34" s="19">
         <v>163000</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J34" s="19">
         <v>0</v>
@@ -3735,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N34" s="19">
         <v>92</v>
@@ -3762,12 +3435,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15">
+    <row r="35" spans="1:21">
       <c r="A35" s="19" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C35" s="19">
         <v>13</v>
@@ -3778,17 +3451,17 @@
       <c r="E35" s="19">
         <v>2025</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="53">
         <v>-0.41311900000000001</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G35" s="40">
         <v>39.510931999999997</v>
       </c>
       <c r="H35" s="19">
         <v>85000</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J35" s="19">
         <v>0</v>
@@ -3800,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N35" s="19">
         <v>87</v>
@@ -3827,12 +3500,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15">
+    <row r="36" spans="1:21">
       <c r="A36" s="19" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C36" s="19">
         <v>20</v>
@@ -3843,17 +3516,17 @@
       <c r="E36" s="19">
         <v>2024</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="53">
         <v>-0.417408</v>
       </c>
-      <c r="G36" s="45">
+      <c r="G36" s="40">
         <v>39.518926999999998</v>
       </c>
       <c r="H36" s="19">
         <v>395000</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J36" s="19">
         <v>0</v>
@@ -3865,7 +3538,7 @@
         <v>2</v>
       </c>
       <c r="M36" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N36" s="19">
         <v>216</v>
@@ -3892,12 +3565,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15">
+    <row r="37" spans="1:21">
       <c r="A37" s="19" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C37" s="19">
         <v>3</v>
@@ -3908,17 +3581,17 @@
       <c r="E37" s="19">
         <v>2025</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="53">
         <v>-0.41513800000000001</v>
       </c>
-      <c r="G37" s="45">
+      <c r="G37" s="40">
         <v>39.510576999999998</v>
       </c>
       <c r="H37" s="19">
         <v>250000</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J37" s="19">
         <v>0</v>
@@ -3930,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N37" s="19">
         <v>278</v>
@@ -3957,12 +3630,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15">
+    <row r="38" spans="1:21">
       <c r="A38" s="19" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C38" s="19">
         <v>28</v>
@@ -3973,17 +3646,17 @@
       <c r="E38" s="19">
         <v>2025</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="53">
         <v>-0.41515400000000002</v>
       </c>
-      <c r="G38" s="45">
+      <c r="G38" s="40">
         <v>39.503498999999998</v>
       </c>
       <c r="H38" s="19">
         <v>150000</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J38" s="19">
         <v>0</v>
@@ -3995,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N38" s="19">
         <v>54</v>
@@ -4022,12 +3695,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15">
+    <row r="39" spans="1:21">
       <c r="A39" s="19" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C39" s="19">
         <v>19</v>
@@ -4038,17 +3711,17 @@
       <c r="E39" s="19">
         <v>2025</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="53">
         <v>-0.41409200000000002</v>
       </c>
-      <c r="G39" s="45">
+      <c r="G39" s="40">
         <v>39.506627000000002</v>
       </c>
       <c r="H39" s="19">
         <v>125000</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J39" s="19">
         <v>0</v>
@@ -4060,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N39" s="19">
         <v>74</v>
@@ -4087,12 +3760,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15">
+    <row r="40" spans="1:21">
       <c r="A40" s="19" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C40" s="19">
         <v>13</v>
@@ -4103,17 +3776,17 @@
       <c r="E40" s="19">
         <v>2025</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="53">
         <v>-0.401555</v>
       </c>
-      <c r="G40" s="45">
+      <c r="G40" s="40">
         <v>39.501137</v>
       </c>
       <c r="H40" s="19">
         <v>239000</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J40" s="19">
         <v>0</v>
@@ -4125,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N40" s="19">
         <v>136</v>
@@ -4152,12 +3825,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15">
+    <row r="41" spans="1:21">
       <c r="A41" s="19" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C41" s="19">
         <v>13</v>
@@ -4168,17 +3841,17 @@
       <c r="E41" s="19">
         <v>2025</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="53">
         <v>-0.413356</v>
       </c>
-      <c r="G41" s="45">
+      <c r="G41" s="40">
         <v>39.506726</v>
       </c>
       <c r="H41" s="19">
         <v>165000</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J41" s="19">
         <v>0</v>
@@ -4190,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="M41" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N41" s="19">
         <v>75</v>
@@ -4217,12 +3890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15">
+    <row r="42" spans="1:21">
       <c r="A42" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C42" s="19">
         <v>20</v>
@@ -4233,17 +3906,17 @@
       <c r="E42" s="19">
         <v>2011</v>
       </c>
-      <c r="F42" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" s="45">
+      <c r="F42" s="53">
+        <v>-0.59475800000000001</v>
+      </c>
+      <c r="G42" s="40">
         <v>39.422778000000001</v>
       </c>
       <c r="H42" s="19">
         <v>180000</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J42" s="25">
         <v>0</v>
@@ -4255,7 +3928,7 @@
         <v>2</v>
       </c>
       <c r="M42" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N42" s="19">
         <v>107</v>
@@ -4282,12 +3955,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15">
+    <row r="43" spans="1:21">
       <c r="A43" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C43" s="19">
         <v>20</v>
@@ -4298,17 +3971,17 @@
       <c r="E43" s="19">
         <v>2006</v>
       </c>
-      <c r="F43" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" s="45">
+      <c r="F43" s="53">
+        <v>-0.59475800000000001</v>
+      </c>
+      <c r="G43" s="40">
         <v>39.422778000000001</v>
       </c>
       <c r="H43" s="19">
         <v>480000</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J43" s="25">
         <v>0</v>
@@ -4320,7 +3993,7 @@
         <v>4</v>
       </c>
       <c r="M43" s="21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N43" s="19">
         <v>337</v>
@@ -4347,12 +4020,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15">
+    <row r="44" spans="1:21">
       <c r="A44" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C44" s="19">
         <v>20</v>
@@ -4363,17 +4036,17 @@
       <c r="E44" s="19">
         <v>2010</v>
       </c>
-      <c r="F44" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" s="45">
+      <c r="F44" s="53">
+        <v>-0.59475800000000001</v>
+      </c>
+      <c r="G44" s="40">
         <v>39.422778000000001</v>
       </c>
       <c r="H44" s="19">
         <v>145000</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J44" s="25">
         <v>0</v>
@@ -4385,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="M44" s="21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N44" s="19">
         <v>55</v>
@@ -4412,12 +4085,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15">
+    <row r="45" spans="1:21">
       <c r="A45" s="19" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C45" s="19">
         <v>20</v>
@@ -4428,17 +4101,17 @@
       <c r="E45" s="19">
         <v>2007</v>
       </c>
-      <c r="F45" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="45">
+      <c r="F45" s="53">
+        <v>-0.59475800000000001</v>
+      </c>
+      <c r="G45" s="40">
         <v>39.422778000000001</v>
       </c>
       <c r="H45" s="19">
         <v>225000</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J45" s="25">
         <v>1</v>
@@ -4450,7 +4123,7 @@
         <v>3</v>
       </c>
       <c r="M45" s="21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N45" s="19">
         <v>132</v>
@@ -4477,12 +4150,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15">
+    <row r="46" spans="1:21">
       <c r="A46" s="19" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C46" s="19">
         <v>20</v>
@@ -4493,17 +4166,17 @@
       <c r="E46" s="19">
         <v>2002</v>
       </c>
-      <c r="F46" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" s="45">
+      <c r="F46" s="53">
+        <v>-0.59475800000000001</v>
+      </c>
+      <c r="G46" s="40">
         <v>39.422778000000001</v>
       </c>
       <c r="H46" s="19">
         <v>240000</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J46" s="25">
         <v>1</v>
@@ -4515,7 +4188,7 @@
         <v>3</v>
       </c>
       <c r="M46" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N46" s="19">
         <v>140</v>
@@ -4542,12 +4215,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15">
+    <row r="47" spans="1:21">
       <c r="A47" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C47" s="19">
         <v>20</v>
@@ -4558,17 +4231,17 @@
       <c r="E47" s="19">
         <v>1971</v>
       </c>
-      <c r="F47" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="45">
+      <c r="F47" s="53">
+        <v>-0.59475800000000001</v>
+      </c>
+      <c r="G47" s="40">
         <v>39.624600000000001</v>
       </c>
       <c r="H47" s="19">
         <v>285000</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J47" s="25">
         <v>0</v>
@@ -4580,7 +4253,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N47" s="19">
         <v>108</v>
@@ -4607,12 +4280,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15">
+    <row r="48" spans="1:21">
       <c r="A48" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C48" s="19">
         <v>20</v>
@@ -4623,17 +4296,17 @@
       <c r="E48" s="19">
         <v>1971</v>
       </c>
-      <c r="F48" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" s="45">
+      <c r="F48" s="53">
+        <v>-0.38083299999999998</v>
+      </c>
+      <c r="G48" s="40">
         <v>39.496899999999997</v>
       </c>
       <c r="H48" s="19">
         <v>189000</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J48" s="25">
         <v>1</v>
@@ -4645,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N48" s="19">
         <v>82</v>
@@ -4670,12 +4343,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15">
+    <row r="49" spans="1:21">
       <c r="A49" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C49" s="19">
         <v>20</v>
@@ -4686,17 +4359,17 @@
       <c r="E49" s="19">
         <v>1963</v>
       </c>
-      <c r="F49" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="45">
+      <c r="F49" s="53">
+        <v>-0.38083299999999998</v>
+      </c>
+      <c r="G49" s="40">
         <v>39.496899999999997</v>
       </c>
       <c r="H49" s="19">
         <v>150000</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J49" s="25">
         <v>1</v>
@@ -4708,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="M49" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N49" s="19">
         <v>66</v>
@@ -4735,12 +4408,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="15">
+    <row r="50" spans="1:21">
       <c r="A50" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C50" s="19">
         <v>20</v>
@@ -4751,17 +4424,17 @@
       <c r="E50" s="19">
         <v>1972</v>
       </c>
-      <c r="F50" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" s="45">
+      <c r="F50" s="53">
+        <v>-0.38083299999999998</v>
+      </c>
+      <c r="G50" s="40">
         <v>39.496899999999997</v>
       </c>
       <c r="H50" s="19">
         <v>194000</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J50" s="25">
         <v>0</v>
@@ -4773,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N50" s="19">
         <v>75</v>
@@ -4800,12 +4473,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15">
+    <row r="51" spans="1:21">
       <c r="A51" s="19" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C51" s="19">
         <v>20</v>
@@ -4816,17 +4489,17 @@
       <c r="E51" s="19">
         <v>2006</v>
       </c>
-      <c r="F51" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G51" s="45">
+      <c r="F51" s="53">
+        <v>-0.38083299999999998</v>
+      </c>
+      <c r="G51" s="40">
         <v>39.496899999999997</v>
       </c>
       <c r="H51" s="19">
         <v>340000</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="J51" s="25">
         <v>1</v>
@@ -4838,7 +4511,7 @@
         <v>1</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N51" s="19">
         <v>100</v>
@@ -4863,12 +4536,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15">
+    <row r="52" spans="1:21">
       <c r="A52" s="19" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C52" s="19">
         <v>1</v>
@@ -4879,17 +4552,17 @@
       <c r="E52" s="19">
         <v>2025</v>
       </c>
-      <c r="F52" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" s="45" t="s">
-        <v>73</v>
+      <c r="F52" s="53">
+        <v>-0.41670000000000001</v>
+      </c>
+      <c r="G52" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="H52" s="19">
         <v>70000</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J52" s="25">
         <v>0</v>
@@ -4901,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="M52" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N52" s="19">
         <v>60</v>
@@ -4928,12 +4601,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15">
+    <row r="53" spans="1:21">
       <c r="A53" s="19" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C53" s="19">
         <v>2</v>
@@ -4944,17 +4617,17 @@
       <c r="E53" s="19">
         <v>2025</v>
       </c>
-      <c r="F53" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="G53" s="45" t="s">
-        <v>77</v>
+      <c r="F53" s="53">
+        <v>-0.4168</v>
+      </c>
+      <c r="G53" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="H53" s="19">
         <v>100000</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J53" s="25">
         <v>0</v>
@@ -4966,7 +4639,7 @@
         <v>2</v>
       </c>
       <c r="M53" s="21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N53" s="19">
         <v>75</v>
@@ -4993,12 +4666,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="15">
+    <row r="54" spans="1:21">
       <c r="A54" s="19" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C54" s="19">
         <v>3</v>
@@ -5009,17 +4682,17 @@
       <c r="E54" s="19">
         <v>2025</v>
       </c>
-      <c r="F54" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="G54" s="45" t="s">
-        <v>79</v>
+      <c r="F54" s="53">
+        <v>-0.41689999999999999</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="H54" s="19">
         <v>200000</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J54" s="25">
         <v>0</v>
@@ -5031,7 +4704,7 @@
         <v>3</v>
       </c>
       <c r="M54" s="21" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="N54" s="19">
         <v>105</v>
@@ -5058,12 +4731,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="15">
+    <row r="55" spans="1:21">
       <c r="A55" s="19" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C55" s="19">
         <v>4</v>
@@ -5074,17 +4747,17 @@
       <c r="E55" s="19">
         <v>2025</v>
       </c>
-      <c r="F55" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G55" s="45">
+      <c r="F55" s="53">
+        <v>-0.41699999999999998</v>
+      </c>
+      <c r="G55" s="40">
         <v>39.4253</v>
       </c>
       <c r="H55" s="19">
         <v>90000</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J55" s="25">
         <v>0</v>
@@ -5096,7 +4769,7 @@
         <v>3</v>
       </c>
       <c r="M55" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N55" s="19">
         <v>76</v>
@@ -5123,12 +4796,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="15">
+    <row r="56" spans="1:21">
       <c r="A56" s="19" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C56" s="19">
         <v>5</v>
@@ -5139,17 +4812,17 @@
       <c r="E56" s="19">
         <v>2025</v>
       </c>
-      <c r="F56" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="G56" s="45">
+      <c r="F56" s="53">
+        <v>-0.41710000000000003</v>
+      </c>
+      <c r="G56" s="40">
         <v>39.425400000000003</v>
       </c>
       <c r="H56" s="19">
         <v>120000</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J56" s="25">
         <v>1</v>
@@ -5161,7 +4834,7 @@
         <v>2</v>
       </c>
       <c r="M56" s="21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N56" s="19">
         <v>77</v>
@@ -5188,12 +4861,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="15">
+    <row r="57" spans="1:21">
       <c r="A57" s="19" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C57" s="19">
         <v>6</v>
@@ -5204,17 +4877,17 @@
       <c r="E57" s="19">
         <v>2025</v>
       </c>
-      <c r="F57" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G57" s="45" t="s">
-        <v>84</v>
+      <c r="F57" s="53">
+        <v>-0.41720000000000002</v>
+      </c>
+      <c r="G57" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="H57" s="19">
         <v>150000</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J57" s="25">
         <v>1</v>
@@ -5226,7 +4899,7 @@
         <v>2</v>
       </c>
       <c r="M57" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N57" s="19">
         <v>80</v>
@@ -5253,12 +4926,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="15">
+    <row r="58" spans="1:21">
       <c r="A58" s="19" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C58" s="19">
         <v>7</v>
@@ -5269,17 +4942,17 @@
       <c r="E58" s="19">
         <v>2025</v>
       </c>
-      <c r="F58" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G58" s="45" t="s">
-        <v>86</v>
+      <c r="F58" s="53">
+        <v>-0.4173</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="H58" s="19">
         <v>220000</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J58" s="25">
         <v>1</v>
@@ -5291,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="M58" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N58" s="19">
         <v>95</v>
@@ -5318,12 +4991,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="15">
+    <row r="59" spans="1:21">
       <c r="A59" s="19" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C59" s="19">
         <v>8</v>
@@ -5334,17 +5007,17 @@
       <c r="E59" s="19">
         <v>2025</v>
       </c>
-      <c r="F59" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G59" s="45" t="s">
-        <v>88</v>
+      <c r="F59" s="53">
+        <v>-0.41739999999999999</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>61</v>
       </c>
       <c r="H59" s="19">
         <v>250000</v>
       </c>
       <c r="I59" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J59" s="25">
         <v>1</v>
@@ -5356,7 +5029,7 @@
         <v>4</v>
       </c>
       <c r="M59" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N59" s="19">
         <v>100</v>
@@ -5383,12 +5056,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="15">
+    <row r="60" spans="1:21">
       <c r="A60" s="19" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C60" s="19">
         <v>9</v>
@@ -5399,17 +5072,17 @@
       <c r="E60" s="19">
         <v>2025</v>
       </c>
-      <c r="F60" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G60" s="45" t="s">
-        <v>90</v>
+      <c r="F60" s="53">
+        <v>-0.41749999999999998</v>
+      </c>
+      <c r="G60" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="H60" s="19">
         <v>270000</v>
       </c>
       <c r="I60" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J60" s="25">
         <v>1</v>
@@ -5421,7 +5094,7 @@
         <v>4</v>
       </c>
       <c r="M60" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N60" s="19">
         <v>120</v>
@@ -5448,12 +5121,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="15">
+    <row r="61" spans="1:21">
       <c r="A61" s="19" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C61" s="19">
         <v>10</v>
@@ -5464,17 +5137,17 @@
       <c r="E61" s="19">
         <v>2025</v>
       </c>
-      <c r="F61" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="G61" s="45" t="s">
-        <v>92</v>
+      <c r="F61" s="53">
+        <v>-0.41760000000000003</v>
+      </c>
+      <c r="G61" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="H61" s="19">
         <v>1000000</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J61" s="25">
         <v>1</v>
@@ -5486,7 +5159,7 @@
         <v>5</v>
       </c>
       <c r="M61" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N61" s="19">
         <v>300</v>
@@ -5513,12 +5186,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15">
+    <row r="62" spans="1:21">
       <c r="A62" s="26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C62" s="26">
         <v>15</v>
@@ -5529,61 +5202,61 @@
       <c r="E62" s="26">
         <v>2025</v>
       </c>
-      <c r="F62" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G62" s="50">
+      <c r="F62" s="56">
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="G62" s="45">
         <v>39.250999999999998</v>
       </c>
-      <c r="H62" s="39">
+      <c r="H62" s="35">
         <v>80000</v>
       </c>
       <c r="I62" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J62" s="40">
-        <v>0</v>
-      </c>
-      <c r="K62" s="40">
-        <v>1</v>
-      </c>
-      <c r="L62" s="40">
+        <v>23</v>
+      </c>
+      <c r="J62" s="36">
+        <v>0</v>
+      </c>
+      <c r="K62" s="36">
+        <v>1</v>
+      </c>
+      <c r="L62" s="36">
         <v>2</v>
       </c>
       <c r="M62" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="N62" s="40">
+        <v>26</v>
+      </c>
+      <c r="N62" s="36">
         <v>75</v>
       </c>
-      <c r="O62" s="40">
-        <v>2</v>
-      </c>
-      <c r="P62" s="40">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="40">
-        <v>3</v>
-      </c>
-      <c r="R62" s="40">
-        <v>1</v>
-      </c>
-      <c r="S62" s="40">
+      <c r="O62" s="36">
+        <v>2</v>
+      </c>
+      <c r="P62" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="36">
+        <v>3</v>
+      </c>
+      <c r="R62" s="36">
+        <v>1</v>
+      </c>
+      <c r="S62" s="36">
         <v>6</v>
       </c>
-      <c r="T62" s="40">
-        <v>1</v>
-      </c>
-      <c r="U62" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" ht="15">
+      <c r="T62" s="36">
+        <v>1</v>
+      </c>
+      <c r="U62" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C63" s="26">
         <v>15</v>
@@ -5594,61 +5267,61 @@
       <c r="E63" s="26">
         <v>2024</v>
       </c>
-      <c r="F63" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="G63" s="50">
+      <c r="F63" s="56">
+        <v>-0.41389999999999999</v>
+      </c>
+      <c r="G63" s="45">
         <v>39.250999999999998</v>
       </c>
-      <c r="H63" s="39">
+      <c r="H63" s="35">
         <v>230000</v>
       </c>
       <c r="I63" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J63" s="40">
-        <v>1</v>
-      </c>
-      <c r="K63" s="40">
-        <v>0</v>
-      </c>
-      <c r="L63" s="40">
+        <v>29</v>
+      </c>
+      <c r="J63" s="36">
+        <v>1</v>
+      </c>
+      <c r="K63" s="36">
+        <v>0</v>
+      </c>
+      <c r="L63" s="36">
         <v>2</v>
       </c>
       <c r="M63" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="N63" s="40">
+        <v>25</v>
+      </c>
+      <c r="N63" s="36">
         <v>100</v>
       </c>
-      <c r="O63" s="40">
-        <v>1</v>
-      </c>
-      <c r="P63" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="40">
-        <v>3</v>
-      </c>
-      <c r="R63" s="40">
-        <v>1</v>
-      </c>
-      <c r="S63" s="40">
+      <c r="O63" s="36">
+        <v>1</v>
+      </c>
+      <c r="P63" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="36">
+        <v>3</v>
+      </c>
+      <c r="R63" s="36">
+        <v>1</v>
+      </c>
+      <c r="S63" s="36">
         <v>7</v>
       </c>
-      <c r="T63" s="40">
-        <v>1</v>
-      </c>
-      <c r="U63" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" ht="15">
+      <c r="T63" s="36">
+        <v>1</v>
+      </c>
+      <c r="U63" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="26" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C64" s="26">
         <v>15</v>
@@ -5659,61 +5332,61 @@
       <c r="E64" s="26">
         <v>2023</v>
       </c>
-      <c r="F64" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="G64" s="50">
+      <c r="F64" s="56">
+        <v>-0.43869999999999998</v>
+      </c>
+      <c r="G64" s="45">
         <v>39.250999999999998</v>
       </c>
-      <c r="H64" s="39">
+      <c r="H64" s="35">
         <v>140000</v>
       </c>
       <c r="I64" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="40">
-        <v>0</v>
-      </c>
-      <c r="K64" s="40">
-        <v>1</v>
-      </c>
-      <c r="L64" s="40">
+        <v>27</v>
+      </c>
+      <c r="J64" s="36">
+        <v>0</v>
+      </c>
+      <c r="K64" s="36">
+        <v>1</v>
+      </c>
+      <c r="L64" s="36">
         <v>1</v>
       </c>
       <c r="M64" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="N64" s="40">
+        <v>28</v>
+      </c>
+      <c r="N64" s="36">
         <v>65</v>
       </c>
-      <c r="O64" s="40">
-        <v>3</v>
-      </c>
-      <c r="P64" s="40">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="40">
-        <v>2</v>
-      </c>
-      <c r="R64" s="40">
-        <v>0</v>
-      </c>
-      <c r="S64" s="40">
+      <c r="O64" s="36">
+        <v>3</v>
+      </c>
+      <c r="P64" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="36">
+        <v>2</v>
+      </c>
+      <c r="R64" s="36">
+        <v>0</v>
+      </c>
+      <c r="S64" s="36">
         <v>5</v>
       </c>
-      <c r="T64" s="40">
-        <v>0</v>
-      </c>
-      <c r="U64" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="15">
+      <c r="T64" s="36">
+        <v>0</v>
+      </c>
+      <c r="U64" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" s="26" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C65" s="26">
         <v>15</v>
@@ -5724,61 +5397,61 @@
       <c r="E65" s="26">
         <v>2022</v>
       </c>
-      <c r="F65" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="G65" s="50">
+      <c r="F65" s="56">
+        <v>-0.43880000000000002</v>
+      </c>
+      <c r="G65" s="45">
         <v>39.250999999999998</v>
       </c>
-      <c r="H65" s="39">
+      <c r="H65" s="35">
         <v>290000</v>
       </c>
       <c r="I65" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="40">
-        <v>1</v>
-      </c>
-      <c r="K65" s="40">
-        <v>1</v>
-      </c>
-      <c r="L65" s="40">
+        <v>23</v>
+      </c>
+      <c r="J65" s="36">
+        <v>1</v>
+      </c>
+      <c r="K65" s="36">
+        <v>1</v>
+      </c>
+      <c r="L65" s="36">
         <v>3</v>
       </c>
       <c r="M65" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="N65" s="40">
+        <v>33</v>
+      </c>
+      <c r="N65" s="36">
         <v>120</v>
       </c>
-      <c r="O65" s="40">
-        <v>2</v>
-      </c>
-      <c r="P65" s="40">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="40">
+      <c r="O65" s="36">
+        <v>2</v>
+      </c>
+      <c r="P65" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="36">
         <v>4</v>
       </c>
-      <c r="R65" s="40">
-        <v>1</v>
-      </c>
-      <c r="S65" s="40">
+      <c r="R65" s="36">
+        <v>1</v>
+      </c>
+      <c r="S65" s="36">
         <v>8</v>
       </c>
-      <c r="T65" s="40">
-        <v>1</v>
-      </c>
-      <c r="U65" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" ht="15">
+      <c r="T65" s="36">
+        <v>1</v>
+      </c>
+      <c r="U65" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" s="26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C66" s="26">
         <v>15</v>
@@ -5789,61 +5462,61 @@
       <c r="E66" s="26">
         <v>2021</v>
       </c>
-      <c r="F66" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" s="50">
+      <c r="F66" s="56">
+        <v>-0.43890000000000001</v>
+      </c>
+      <c r="G66" s="45">
         <v>39.250999999999998</v>
       </c>
-      <c r="H66" s="39">
+      <c r="H66" s="35">
         <v>180000</v>
       </c>
       <c r="I66" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J66" s="40">
-        <v>0</v>
-      </c>
-      <c r="K66" s="40">
-        <v>0</v>
-      </c>
-      <c r="L66" s="40">
+        <v>29</v>
+      </c>
+      <c r="J66" s="36">
+        <v>0</v>
+      </c>
+      <c r="K66" s="36">
+        <v>0</v>
+      </c>
+      <c r="L66" s="36">
         <v>2</v>
       </c>
       <c r="M66" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="N66" s="40">
+        <v>26</v>
+      </c>
+      <c r="N66" s="36">
         <v>85</v>
       </c>
-      <c r="O66" s="40">
-        <v>1</v>
-      </c>
-      <c r="P66" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="40">
-        <v>3</v>
-      </c>
-      <c r="R66" s="40">
-        <v>1</v>
-      </c>
-      <c r="S66" s="40">
+      <c r="O66" s="36">
+        <v>1</v>
+      </c>
+      <c r="P66" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="36">
+        <v>3</v>
+      </c>
+      <c r="R66" s="36">
+        <v>1</v>
+      </c>
+      <c r="S66" s="36">
         <v>6</v>
       </c>
-      <c r="T66" s="40">
-        <v>0</v>
-      </c>
-      <c r="U66" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" ht="15">
+      <c r="T66" s="36">
+        <v>0</v>
+      </c>
+      <c r="U66" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" s="26" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C67" s="26">
         <v>15</v>
@@ -5854,61 +5527,61 @@
       <c r="E67" s="26">
         <v>2020</v>
       </c>
-      <c r="F67" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="G67" s="50">
+      <c r="F67" s="56">
+        <v>-0.41399999999999998</v>
+      </c>
+      <c r="G67" s="45">
         <v>39.250999999999998</v>
       </c>
-      <c r="H67" s="39">
+      <c r="H67" s="35">
         <v>210000</v>
       </c>
       <c r="I67" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J67" s="40">
-        <v>0</v>
-      </c>
-      <c r="K67" s="40">
-        <v>1</v>
-      </c>
-      <c r="L67" s="40">
+        <v>23</v>
+      </c>
+      <c r="J67" s="36">
+        <v>0</v>
+      </c>
+      <c r="K67" s="36">
+        <v>1</v>
+      </c>
+      <c r="L67" s="36">
         <v>2</v>
       </c>
       <c r="M67" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="N67" s="40">
+        <v>25</v>
+      </c>
+      <c r="N67" s="36">
         <v>90</v>
       </c>
-      <c r="O67" s="40">
-        <v>3</v>
-      </c>
-      <c r="P67" s="40">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="40">
-        <v>3</v>
-      </c>
-      <c r="R67" s="40">
-        <v>1</v>
-      </c>
-      <c r="S67" s="40">
+      <c r="O67" s="36">
+        <v>3</v>
+      </c>
+      <c r="P67" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="36">
+        <v>3</v>
+      </c>
+      <c r="R67" s="36">
+        <v>1</v>
+      </c>
+      <c r="S67" s="36">
         <v>7</v>
       </c>
-      <c r="T67" s="40">
-        <v>1</v>
-      </c>
-      <c r="U67" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="15">
+      <c r="T67" s="36">
+        <v>1</v>
+      </c>
+      <c r="U67" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C68" s="26">
         <v>15</v>
@@ -5919,61 +5592,61 @@
       <c r="E68" s="26">
         <v>2019</v>
       </c>
-      <c r="F68" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="G68" s="50">
+      <c r="F68" s="56">
+        <v>-0.40200000000000002</v>
+      </c>
+      <c r="G68" s="45">
         <v>39.250999999999998</v>
       </c>
-      <c r="H68" s="39">
+      <c r="H68" s="35">
         <v>250000</v>
       </c>
       <c r="I68" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J68" s="40">
-        <v>1</v>
-      </c>
-      <c r="K68" s="40">
-        <v>0</v>
-      </c>
-      <c r="L68" s="40">
+        <v>27</v>
+      </c>
+      <c r="J68" s="36">
+        <v>1</v>
+      </c>
+      <c r="K68" s="36">
+        <v>0</v>
+      </c>
+      <c r="L68" s="36">
         <v>3</v>
       </c>
       <c r="M68" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="N68" s="40">
+        <v>28</v>
+      </c>
+      <c r="N68" s="36">
         <v>110</v>
       </c>
-      <c r="O68" s="40">
-        <v>2</v>
-      </c>
-      <c r="P68" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="40">
+      <c r="O68" s="36">
+        <v>2</v>
+      </c>
+      <c r="P68" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="36">
         <v>4</v>
       </c>
-      <c r="R68" s="40">
-        <v>1</v>
-      </c>
-      <c r="S68" s="40">
+      <c r="R68" s="36">
+        <v>1</v>
+      </c>
+      <c r="S68" s="36">
         <v>9</v>
       </c>
-      <c r="T68" s="40">
-        <v>1</v>
-      </c>
-      <c r="U68" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="15">
+      <c r="T68" s="36">
+        <v>1</v>
+      </c>
+      <c r="U68" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" s="26" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C69" s="26">
         <v>15</v>
@@ -5984,61 +5657,61 @@
       <c r="E69" s="26">
         <v>2018</v>
       </c>
-      <c r="F69" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="G69" s="50">
+      <c r="F69" s="56">
+        <v>-0.42404999999999998</v>
+      </c>
+      <c r="G69" s="45">
         <v>39.250999999999998</v>
       </c>
-      <c r="H69" s="39">
+      <c r="H69" s="35">
         <v>195000</v>
       </c>
       <c r="I69" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J69" s="40">
-        <v>0</v>
-      </c>
-      <c r="K69" s="40">
-        <v>1</v>
-      </c>
-      <c r="L69" s="40">
+        <v>29</v>
+      </c>
+      <c r="J69" s="36">
+        <v>0</v>
+      </c>
+      <c r="K69" s="36">
+        <v>1</v>
+      </c>
+      <c r="L69" s="36">
         <v>2</v>
       </c>
       <c r="M69" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="N69" s="40">
+        <v>33</v>
+      </c>
+      <c r="N69" s="36">
         <v>100</v>
       </c>
-      <c r="O69" s="40">
-        <v>1</v>
-      </c>
-      <c r="P69" s="40">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="40">
-        <v>3</v>
-      </c>
-      <c r="R69" s="40">
-        <v>0</v>
-      </c>
-      <c r="S69" s="40">
+      <c r="O69" s="36">
+        <v>1</v>
+      </c>
+      <c r="P69" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="36">
+        <v>3</v>
+      </c>
+      <c r="R69" s="36">
+        <v>0</v>
+      </c>
+      <c r="S69" s="36">
         <v>6</v>
       </c>
-      <c r="T69" s="40">
-        <v>1</v>
-      </c>
-      <c r="U69" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" ht="15">
+      <c r="T69" s="36">
+        <v>1</v>
+      </c>
+      <c r="U69" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" s="26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C70" s="26">
         <v>15</v>
@@ -6049,61 +5722,61 @@
       <c r="E70" s="26">
         <v>2025</v>
       </c>
-      <c r="F70" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="G70" s="50">
+      <c r="F70" s="56">
+        <v>-0.40799999999999997</v>
+      </c>
+      <c r="G70" s="45">
         <v>39.250999999999998</v>
       </c>
-      <c r="H70" s="39">
+      <c r="H70" s="35">
         <v>320000</v>
       </c>
       <c r="I70" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J70" s="40">
-        <v>1</v>
-      </c>
-      <c r="K70" s="40">
-        <v>1</v>
-      </c>
-      <c r="L70" s="40">
+        <v>23</v>
+      </c>
+      <c r="J70" s="36">
+        <v>1</v>
+      </c>
+      <c r="K70" s="36">
+        <v>1</v>
+      </c>
+      <c r="L70" s="36">
         <v>3</v>
       </c>
       <c r="M70" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="N70" s="40">
+        <v>26</v>
+      </c>
+      <c r="N70" s="36">
         <v>130</v>
       </c>
-      <c r="O70" s="40">
-        <v>3</v>
-      </c>
-      <c r="P70" s="40">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="40">
+      <c r="O70" s="36">
+        <v>3</v>
+      </c>
+      <c r="P70" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="36">
         <v>4</v>
       </c>
-      <c r="R70" s="40">
-        <v>1</v>
-      </c>
-      <c r="S70" s="40">
+      <c r="R70" s="36">
+        <v>1</v>
+      </c>
+      <c r="S70" s="36">
         <v>8</v>
       </c>
-      <c r="T70" s="40">
-        <v>1</v>
-      </c>
-      <c r="U70" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" ht="15">
+      <c r="T70" s="36">
+        <v>1</v>
+      </c>
+      <c r="U70" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" s="26" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C71" s="26">
         <v>15</v>
@@ -6114,61 +5787,61 @@
       <c r="E71" s="26">
         <v>2025</v>
       </c>
-      <c r="F71" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G71" s="50">
+      <c r="F71" s="56">
+        <v>-0.41</v>
+      </c>
+      <c r="G71" s="45">
         <v>39.250999999999998</v>
       </c>
-      <c r="H71" s="39">
+      <c r="H71" s="35">
         <v>170000</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J71" s="40">
-        <v>0</v>
-      </c>
-      <c r="K71" s="40">
-        <v>0</v>
-      </c>
-      <c r="L71" s="40">
+        <v>29</v>
+      </c>
+      <c r="J71" s="36">
+        <v>0</v>
+      </c>
+      <c r="K71" s="36">
+        <v>0</v>
+      </c>
+      <c r="L71" s="36">
         <v>1</v>
       </c>
       <c r="M71" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="N71" s="40">
+        <v>25</v>
+      </c>
+      <c r="N71" s="36">
         <v>75</v>
       </c>
-      <c r="O71" s="40">
-        <v>0</v>
-      </c>
-      <c r="P71" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="40">
-        <v>2</v>
-      </c>
-      <c r="R71" s="40">
-        <v>0</v>
-      </c>
-      <c r="S71" s="40">
+      <c r="O71" s="36">
+        <v>0</v>
+      </c>
+      <c r="P71" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="36">
+        <v>2</v>
+      </c>
+      <c r="R71" s="36">
+        <v>0</v>
+      </c>
+      <c r="S71" s="36">
         <v>5</v>
       </c>
-      <c r="T71" s="40">
-        <v>0</v>
-      </c>
-      <c r="U71" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" ht="15">
+      <c r="T71" s="36">
+        <v>0</v>
+      </c>
+      <c r="U71" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C72" s="19">
         <v>23</v>
@@ -6179,17 +5852,17 @@
       <c r="E72" s="19">
         <v>2025</v>
       </c>
-      <c r="F72" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="G72" s="45" t="s">
-        <v>108</v>
+      <c r="F72" s="53">
+        <v>-0.58285500000000001</v>
+      </c>
+      <c r="G72" s="34">
+        <v>39.429684000000002</v>
       </c>
       <c r="H72" s="18">
         <v>595000</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J72" s="19">
         <v>1</v>
@@ -6201,7 +5874,7 @@
         <v>5</v>
       </c>
       <c r="M72" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N72" s="19">
         <v>74</v>
@@ -6228,12 +5901,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="15">
+    <row r="73" spans="1:21">
       <c r="A73" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="C73" s="19">
         <v>5</v>
@@ -6244,17 +5917,17 @@
       <c r="E73" s="19">
         <v>2025</v>
       </c>
-      <c r="F73" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="G73" s="45" t="s">
-        <v>110</v>
+      <c r="F73" s="53">
+        <v>-0.4713619</v>
+      </c>
+      <c r="G73" s="34">
+        <v>39.432099999999998</v>
       </c>
       <c r="H73" s="18">
         <v>230000</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J73" s="19">
         <v>0</v>
@@ -6266,7 +5939,7 @@
         <v>2</v>
       </c>
       <c r="M73" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N73" s="19">
         <v>162</v>
@@ -6293,12 +5966,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="15">
+    <row r="74" spans="1:21">
       <c r="A74" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="C74" s="19">
         <v>27</v>
@@ -6309,17 +5982,17 @@
       <c r="E74" s="19">
         <v>2025</v>
       </c>
-      <c r="F74" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="G74" s="45" t="s">
-        <v>112</v>
+      <c r="F74" s="53">
+        <v>-0.48358719999999999</v>
+      </c>
+      <c r="G74" s="34">
+        <v>39.409030000000001</v>
       </c>
       <c r="H74" s="18">
         <v>1250000</v>
       </c>
       <c r="I74" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J74" s="19">
         <v>1</v>
@@ -6331,7 +6004,7 @@
         <v>7</v>
       </c>
       <c r="M74" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N74" s="19">
         <v>57</v>
@@ -6358,12 +6031,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="15">
+    <row r="75" spans="1:21">
       <c r="A75" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C75" s="19">
         <v>10</v>
@@ -6374,17 +6047,17 @@
       <c r="E75" s="19">
         <v>2024</v>
       </c>
-      <c r="F75" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="G75" s="45" t="s">
-        <v>114</v>
+      <c r="F75" s="53">
+        <v>-0.47512599999999999</v>
+      </c>
+      <c r="G75" s="34">
+        <v>39.430430000000001</v>
       </c>
       <c r="H75" s="18">
         <v>249000</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J75" s="19">
         <v>0</v>
@@ -6396,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="M75" s="21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N75" s="19">
         <v>116</v>
@@ -6423,12 +6096,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="15">
+    <row r="76" spans="1:21">
       <c r="A76" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C76" s="19">
         <v>8</v>
@@ -6439,17 +6112,17 @@
       <c r="E76" s="16">
         <v>2025</v>
       </c>
-      <c r="F76" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="G76" s="45" t="s">
-        <v>116</v>
+      <c r="F76" s="53">
+        <v>-0.37859799999999999</v>
+      </c>
+      <c r="G76" s="34">
+        <v>39.455570000000002</v>
       </c>
       <c r="H76" s="18">
         <v>350000</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J76" s="19">
         <v>0</v>
@@ -6461,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="M76" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N76" s="19">
         <v>106</v>
@@ -6488,12 +6161,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="15">
+    <row r="77" spans="1:21">
       <c r="A77" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C77" s="19">
         <v>12</v>
@@ -6504,17 +6177,17 @@
       <c r="E77" s="19">
         <v>2025</v>
       </c>
-      <c r="F77" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="G77" s="45" t="s">
-        <v>118</v>
+      <c r="F77" s="53">
+        <v>-0.47073100000000001</v>
+      </c>
+      <c r="G77" s="34">
+        <v>39.443089000000001</v>
       </c>
       <c r="H77" s="28">
         <v>300000</v>
       </c>
       <c r="I77" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J77" s="19">
         <v>0</v>
@@ -6526,7 +6199,7 @@
         <v>2</v>
       </c>
       <c r="M77" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N77" s="19">
         <v>163</v>
@@ -6553,12 +6226,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="15">
+    <row r="78" spans="1:21">
       <c r="A78" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C78" s="19">
         <v>11</v>
@@ -6569,17 +6242,17 @@
       <c r="E78" s="19">
         <v>2024</v>
       </c>
-      <c r="F78" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G78" s="45" t="s">
-        <v>120</v>
+      <c r="F78" s="53">
+        <v>-0.53169500000000003</v>
+      </c>
+      <c r="G78" s="34">
+        <v>39.399329999999999</v>
       </c>
       <c r="H78" s="18">
         <v>329000</v>
       </c>
       <c r="I78" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J78" s="19">
         <v>1</v>
@@ -6591,7 +6264,7 @@
         <v>4</v>
       </c>
       <c r="M78" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N78" s="19">
         <v>320</v>
@@ -6618,12 +6291,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="15">
+    <row r="79" spans="1:21">
       <c r="A79" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C79" s="19">
         <v>3</v>
@@ -6634,17 +6307,17 @@
       <c r="E79" s="16">
         <v>2025</v>
       </c>
-      <c r="F79" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="G79" s="45" t="s">
-        <v>122</v>
+      <c r="F79" s="53">
+        <v>-0.47312500000000002</v>
+      </c>
+      <c r="G79" s="34">
+        <v>39.423430000000003</v>
       </c>
       <c r="H79" s="18">
         <v>490000</v>
       </c>
       <c r="I79" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J79" s="19">
         <v>0</v>
@@ -6656,7 +6329,7 @@
         <v>3</v>
       </c>
       <c r="M79" s="21" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="N79" s="19">
         <v>147</v>
@@ -6683,12 +6356,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="15">
+    <row r="80" spans="1:21">
       <c r="A80" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C80" s="19">
         <v>2</v>
@@ -6699,17 +6372,17 @@
       <c r="E80" s="19">
         <v>2025</v>
       </c>
-      <c r="F80" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="G80" s="45" t="s">
-        <v>124</v>
+      <c r="F80" s="53">
+        <v>-0.473111</v>
+      </c>
+      <c r="G80" s="34">
+        <v>39.422269999999997</v>
       </c>
       <c r="H80" s="18">
         <v>450000</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J80" s="19">
         <v>1</v>
@@ -6721,7 +6394,7 @@
         <v>2</v>
       </c>
       <c r="M80" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N80" s="19">
         <v>318</v>
@@ -6748,12 +6421,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="15">
+    <row r="81" spans="1:21">
       <c r="A81" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C81" s="19">
         <v>20</v>
@@ -6764,17 +6437,17 @@
       <c r="E81" s="19">
         <v>2025</v>
       </c>
-      <c r="F81" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="G81" s="45" t="s">
-        <v>126</v>
+      <c r="F81" s="53">
+        <v>-0.47283380000000003</v>
+      </c>
+      <c r="G81" s="34">
+        <v>39.367820000000002</v>
       </c>
       <c r="H81" s="18">
         <v>525000</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J81" s="19">
         <v>1</v>
@@ -6786,7 +6459,7 @@
         <v>3</v>
       </c>
       <c r="M81" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N81" s="19">
         <v>285</v>
@@ -6813,12 +6486,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="15">
+    <row r="82" spans="1:21">
       <c r="A82" s="19" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C82" s="19">
         <v>11</v>
@@ -6829,17 +6502,17 @@
       <c r="E82" s="19">
         <v>2025</v>
       </c>
-      <c r="F82" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G82" s="45">
+      <c r="F82" s="53">
+        <v>-0.41399999999999998</v>
+      </c>
+      <c r="G82" s="40">
         <v>39.393999999999998</v>
       </c>
       <c r="H82" s="18">
         <v>295000</v>
       </c>
       <c r="I82" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J82" s="19">
         <v>1</v>
@@ -6851,7 +6524,7 @@
         <v>3</v>
       </c>
       <c r="M82" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N82" s="19">
         <v>215</v>
@@ -6878,12 +6551,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="15">
+    <row r="83" spans="1:21">
       <c r="A83" s="19" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C83" s="19">
         <v>11</v>
@@ -6894,17 +6567,17 @@
       <c r="E83" s="19">
         <v>2025</v>
       </c>
-      <c r="F83" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="G83" s="45">
+      <c r="F83" s="55">
+        <v>-0.36</v>
+      </c>
+      <c r="G83" s="40">
         <v>39.442999999999998</v>
       </c>
       <c r="H83" s="18">
         <v>235000</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J83" s="19">
         <v>0</v>
@@ -6916,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="M83" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N83" s="19">
         <v>145</v>
@@ -6943,12 +6616,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="15">
+    <row r="84" spans="1:21">
       <c r="A84" s="19" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="C84" s="19">
         <v>25</v>
@@ -6959,29 +6632,29 @@
       <c r="E84" s="19">
         <v>2025</v>
       </c>
-      <c r="F84" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="G84" s="46">
+      <c r="F84" s="53">
+        <v>-0.38</v>
+      </c>
+      <c r="G84" s="41">
         <v>39.420999999999999</v>
       </c>
       <c r="H84" s="18">
         <v>110500</v>
       </c>
       <c r="I84" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J84" s="19">
+        <v>0</v>
+      </c>
+      <c r="K84" s="19">
+        <v>0</v>
+      </c>
+      <c r="L84" s="19">
+        <v>1</v>
+      </c>
+      <c r="M84" s="21" t="s">
         <v>24</v>
-      </c>
-      <c r="J84" s="19">
-        <v>0</v>
-      </c>
-      <c r="K84" s="19">
-        <v>0</v>
-      </c>
-      <c r="L84" s="19">
-        <v>1</v>
-      </c>
-      <c r="M84" s="21" t="s">
-        <v>25</v>
       </c>
       <c r="N84" s="19">
         <v>40</v>
@@ -7008,12 +6681,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="15">
+    <row r="85" spans="1:21">
       <c r="A85" s="19" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="C85" s="19">
         <v>27</v>
@@ -7024,17 +6697,17 @@
       <c r="E85" s="19">
         <v>2025</v>
       </c>
-      <c r="F85" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G85" s="45">
+      <c r="F85" s="53">
+        <v>-0.35799999999999998</v>
+      </c>
+      <c r="G85" s="40">
         <v>39.555999999999997</v>
       </c>
       <c r="H85" s="18">
         <v>579000</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J85" s="19">
         <v>1</v>
@@ -7046,7 +6719,7 @@
         <v>2</v>
       </c>
       <c r="M85" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N85" s="19">
         <v>129</v>
@@ -7073,12 +6746,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="15">
+    <row r="86" spans="1:21">
       <c r="A86" s="19" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="C86" s="19">
         <v>17</v>
@@ -7089,17 +6762,17 @@
       <c r="E86" s="19">
         <v>2025</v>
       </c>
-      <c r="F86" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G86" s="45">
+      <c r="F86" s="53">
+        <v>-0.41399999999999998</v>
+      </c>
+      <c r="G86" s="40">
         <v>39.823</v>
       </c>
       <c r="H86" s="18">
         <v>499000</v>
       </c>
       <c r="I86" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J86" s="19">
         <v>0</v>
@@ -7111,7 +6784,7 @@
         <v>3</v>
       </c>
       <c r="M86" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N86" s="19">
         <v>239</v>
@@ -7138,12 +6811,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="15">
+    <row r="87" spans="1:21">
       <c r="A87" s="19" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C87" s="19">
         <v>26</v>
@@ -7154,17 +6827,17 @@
       <c r="E87" s="19">
         <v>2025</v>
       </c>
-      <c r="F87" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G87" s="45">
+      <c r="F87" s="53">
+        <v>-0.33300000000000002</v>
+      </c>
+      <c r="G87" s="40">
         <v>39.488</v>
       </c>
       <c r="H87" s="18">
         <v>4700000</v>
       </c>
       <c r="I87" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J87" s="19">
         <v>1</v>
@@ -7176,7 +6849,7 @@
         <v>8</v>
       </c>
       <c r="M87" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N87" s="19">
         <v>59</v>
@@ -7193,8 +6866,8 @@
       <c r="R87" s="19">
         <v>1</v>
       </c>
-      <c r="S87" s="25" t="s">
-        <v>137</v>
+      <c r="S87" s="25">
+        <v>0.2</v>
       </c>
       <c r="T87" s="19">
         <v>1</v>
@@ -7203,12 +6876,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="15">
+    <row r="88" spans="1:21">
       <c r="A88" s="19" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="C88" s="19">
         <v>16</v>
@@ -7219,17 +6892,17 @@
       <c r="E88" s="19">
         <v>2025</v>
       </c>
-      <c r="F88" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="G88" s="45">
+      <c r="F88" s="53">
+        <v>-0.44500000000000001</v>
+      </c>
+      <c r="G88" s="40">
         <v>39.531999999999996</v>
       </c>
       <c r="H88" s="18">
         <v>5000000</v>
       </c>
       <c r="I88" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J88" s="19">
         <v>0</v>
@@ -7241,7 +6914,7 @@
         <v>11</v>
       </c>
       <c r="M88" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N88" s="18">
         <v>12</v>
@@ -7268,12 +6941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="15">
+    <row r="89" spans="1:21">
       <c r="A89" s="19" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="C89" s="19">
         <v>15</v>
@@ -7284,17 +6957,17 @@
       <c r="E89" s="19">
         <v>2025</v>
       </c>
-      <c r="F89" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="G89" s="45">
+      <c r="F89" s="53">
+        <v>-0.34100000000000003</v>
+      </c>
+      <c r="G89" s="40">
         <v>39.64</v>
       </c>
       <c r="H89" s="18">
         <v>530000</v>
       </c>
       <c r="I89" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J89" s="19">
         <v>0</v>
@@ -7306,7 +6979,7 @@
         <v>3</v>
       </c>
       <c r="M89" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N89" s="19">
         <v>224</v>
@@ -7333,12 +7006,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="15">
+    <row r="90" spans="1:21">
       <c r="A90" s="19" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="C90" s="19">
         <v>27</v>
@@ -7349,17 +7022,17 @@
       <c r="E90" s="19">
         <v>2025</v>
       </c>
-      <c r="F90" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="G90" s="45">
+      <c r="F90" s="53">
+        <v>-0.36599999999999999</v>
+      </c>
+      <c r="G90" s="40">
         <v>39.777000000000001</v>
       </c>
       <c r="H90" s="18">
         <v>1250000</v>
       </c>
       <c r="I90" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J90" s="19">
         <v>0</v>
@@ -7371,7 +7044,7 @@
         <v>5</v>
       </c>
       <c r="M90" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N90" s="19">
         <v>49</v>
@@ -7398,12 +7071,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="15">
+    <row r="91" spans="1:21">
       <c r="A91" s="19" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="C91" s="19">
         <v>16</v>
@@ -7414,17 +7087,17 @@
       <c r="E91" s="19">
         <v>2025</v>
       </c>
-      <c r="F91" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G91" s="45">
+      <c r="F91" s="53">
+        <v>-0.71399999999999997</v>
+      </c>
+      <c r="G91" s="40">
         <v>39.401000000000003</v>
       </c>
       <c r="H91" s="18">
         <v>260000</v>
       </c>
       <c r="I91" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J91" s="19">
         <v>0</v>
@@ -7436,7 +7109,7 @@
         <v>2</v>
       </c>
       <c r="M91" s="21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N91" s="19">
         <v>212</v>
@@ -7463,12 +7136,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="15">
+    <row r="92" spans="1:21">
       <c r="A92" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="C92" s="19">
         <v>17</v>
@@ -7479,17 +7152,17 @@
       <c r="E92" s="19">
         <v>2025</v>
       </c>
-      <c r="F92" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G92" s="45">
+      <c r="F92" s="53">
+        <v>-0.224</v>
+      </c>
+      <c r="G92" s="40">
         <v>39.753999999999998</v>
       </c>
       <c r="H92" s="18">
         <v>123000</v>
       </c>
       <c r="I92" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J92" s="19">
         <v>0</v>
@@ -7501,7 +7174,7 @@
         <v>2</v>
       </c>
       <c r="M92" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N92" s="19">
         <v>136</v>
@@ -7528,12 +7201,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="15">
+    <row r="93" spans="1:21">
       <c r="A93" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="C93" s="19">
         <v>17</v>
@@ -7544,17 +7217,17 @@
       <c r="E93" s="19">
         <v>2025</v>
       </c>
-      <c r="F93" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G93" s="45">
+      <c r="F93" s="53">
+        <v>-0.186</v>
+      </c>
+      <c r="G93" s="40">
         <v>39.734999999999999</v>
       </c>
       <c r="H93" s="18">
         <v>197000</v>
       </c>
       <c r="I93" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J93" s="19">
         <v>0</v>
@@ -7566,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="M93" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N93" s="19">
         <v>106</v>
@@ -7591,12 +7264,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="15">
+    <row r="94" spans="1:21">
       <c r="A94" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="C94" s="19">
         <v>22</v>
@@ -7607,17 +7280,17 @@
       <c r="E94" s="19">
         <v>2025</v>
       </c>
-      <c r="F94" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="G94" s="45">
-        <v>39529</v>
+      <c r="F94" s="53">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="G94" s="40">
+        <v>39.529000000000003</v>
       </c>
       <c r="H94" s="18">
         <v>175000</v>
       </c>
       <c r="I94" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J94" s="19">
         <v>0</v>
@@ -7629,7 +7302,7 @@
         <v>2</v>
       </c>
       <c r="M94" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N94" s="19">
         <v>125</v>
@@ -7656,12 +7329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="15">
+    <row r="95" spans="1:21">
       <c r="A95" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="C95" s="19">
         <v>17</v>
@@ -7672,17 +7345,17 @@
       <c r="E95" s="19">
         <v>2025</v>
       </c>
-      <c r="F95" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="G95" s="45">
-        <v>39529</v>
+      <c r="F95" s="53">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="G95" s="40">
+        <v>39.529000000000003</v>
       </c>
       <c r="H95" s="18">
         <v>378000</v>
       </c>
       <c r="I95" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J95" s="19">
         <v>0</v>
@@ -7694,7 +7367,7 @@
         <v>2</v>
       </c>
       <c r="M95" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N95" s="19">
         <v>160</v>
@@ -7721,12 +7394,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="15">
+    <row r="96" spans="1:21">
       <c r="A96" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="C96" s="19">
         <v>17</v>
@@ -7737,17 +7410,17 @@
       <c r="E96" s="19">
         <v>2025</v>
       </c>
-      <c r="F96" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="G96" s="45">
-        <v>39508</v>
+      <c r="F96" s="53">
+        <v>-0.36299999999999999</v>
+      </c>
+      <c r="G96" s="40">
+        <v>39.508000000000003</v>
       </c>
       <c r="H96" s="18">
         <v>170000</v>
       </c>
       <c r="I96" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J96" s="19">
         <v>0</v>
@@ -7759,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="M96" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N96" s="19">
         <v>89</v>
@@ -7786,12 +7459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="15">
+    <row r="97" spans="1:21">
       <c r="A97" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="C97" s="19">
         <v>17</v>
@@ -7802,17 +7475,17 @@
       <c r="E97" s="19">
         <v>2025</v>
       </c>
-      <c r="F97" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="G97" s="45">
-        <v>39508</v>
+      <c r="F97" s="53">
+        <v>-0.36699999999999999</v>
+      </c>
+      <c r="G97" s="40">
+        <v>39.508000000000003</v>
       </c>
       <c r="H97" s="18">
         <v>84500</v>
       </c>
       <c r="I97" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J97" s="19">
         <v>0</v>
@@ -7824,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="M97" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N97" s="19">
         <v>100</v>
@@ -7851,12 +7524,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="15">
+    <row r="98" spans="1:21">
       <c r="A98" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="C98" s="19">
         <v>3</v>
@@ -7867,17 +7540,17 @@
       <c r="E98" s="19">
         <v>2025</v>
       </c>
-      <c r="F98" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="G98" s="45">
-        <v>39592</v>
+      <c r="F98" s="53">
+        <v>-0.55200000000000005</v>
+      </c>
+      <c r="G98" s="40">
+        <v>39.591999999999999</v>
       </c>
       <c r="H98" s="18">
         <v>220000</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J98" s="19">
         <v>1</v>
@@ -7889,7 +7562,7 @@
         <v>1</v>
       </c>
       <c r="M98" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N98" s="19">
         <v>117</v>
@@ -7916,12 +7589,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="15">
+    <row r="99" spans="1:21">
       <c r="A99" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="C99" s="19">
         <v>20</v>
@@ -7932,17 +7605,17 @@
       <c r="E99" s="19">
         <v>2024</v>
       </c>
-      <c r="F99" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="G99" s="45">
+      <c r="F99" s="53">
+        <v>-0.55100000000000005</v>
+      </c>
+      <c r="G99" s="40">
         <v>39.597000000000001</v>
       </c>
       <c r="H99" s="18">
         <v>85000</v>
       </c>
       <c r="I99" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J99" s="19">
         <v>0</v>
@@ -7954,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="M99" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N99" s="19">
         <v>111</v>
@@ -7981,12 +7654,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15">
+    <row r="100" spans="1:21">
       <c r="A100" s="19" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="C100" s="19">
         <v>17</v>
@@ -7997,17 +7670,17 @@
       <c r="E100" s="19">
         <v>2025</v>
       </c>
-      <c r="F100" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G100" s="45">
+      <c r="F100" s="53">
+        <v>-0.311</v>
+      </c>
+      <c r="G100" s="40">
         <v>39.204999999999998</v>
       </c>
       <c r="H100" s="18">
         <v>65000</v>
       </c>
       <c r="I100" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J100" s="19">
         <v>0</v>
@@ -8019,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="M100" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N100" s="19">
         <v>79</v>
@@ -8046,12 +7719,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="15">
+    <row r="101" spans="1:21">
       <c r="A101" s="19" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="C101" s="19">
         <v>13</v>
@@ -8062,17 +7735,17 @@
       <c r="E101" s="19">
         <v>2025</v>
       </c>
-      <c r="F101" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G101" s="45">
+      <c r="F101" s="53">
+        <v>-0.313</v>
+      </c>
+      <c r="G101" s="40">
         <v>39.201999999999998</v>
       </c>
       <c r="H101" s="18">
         <v>85000</v>
       </c>
       <c r="I101" s="21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J101" s="19">
         <v>0</v>
@@ -8084,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="M101" s="21" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="N101" s="19">
         <v>110</v>
@@ -8111,12 +7784,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="15">
+    <row r="102" spans="1:21">
       <c r="A102" s="16" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="C102" s="19">
         <v>17</v>
@@ -8127,17 +7800,17 @@
       <c r="E102" s="19">
         <v>2025</v>
       </c>
-      <c r="F102" s="37">
+      <c r="F102" s="57">
         <v>-0.161</v>
       </c>
-      <c r="G102" s="49">
+      <c r="G102" s="44">
         <v>39.764000000000003</v>
       </c>
       <c r="H102" s="18">
         <v>125000</v>
       </c>
       <c r="I102" s="21" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="J102" s="19">
         <v>0</v>
@@ -8149,7 +7822,7 @@
         <v>1</v>
       </c>
       <c r="M102" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N102" s="19">
         <v>58</v>
@@ -8176,12 +7849,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="15">
+    <row r="103" spans="1:21">
       <c r="A103" s="16" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C103" s="19">
         <v>17</v>
@@ -8192,17 +7865,17 @@
       <c r="E103" s="19">
         <v>2025</v>
       </c>
-      <c r="F103" s="37">
+      <c r="F103" s="57">
         <v>-0.38500000000000001</v>
       </c>
-      <c r="G103" s="49">
+      <c r="G103" s="44">
         <v>39.473999999999997</v>
       </c>
       <c r="H103" s="18">
         <v>210000</v>
       </c>
       <c r="I103" s="21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J103" s="19">
         <v>0</v>
@@ -8214,7 +7887,7 @@
         <v>1</v>
       </c>
       <c r="M103" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N103" s="19">
         <v>61</v>
@@ -8241,12 +7914,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="15">
+    <row r="104" spans="1:21">
       <c r="A104" s="16" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="C104" s="19">
         <v>20</v>
@@ -8257,17 +7930,17 @@
       <c r="E104" s="19">
         <v>2025</v>
       </c>
-      <c r="F104" s="25">
+      <c r="F104" s="53">
         <v>-0.68799999999999994</v>
       </c>
-      <c r="G104" s="45">
+      <c r="G104" s="40">
         <v>39.326000000000001</v>
       </c>
       <c r="H104" s="18">
         <v>205000</v>
       </c>
       <c r="I104" s="21" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="J104" s="19">
         <v>1</v>
@@ -8279,7 +7952,7 @@
         <v>2</v>
       </c>
       <c r="M104" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N104" s="19">
         <v>264</v>
@@ -8306,12 +7979,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15">
+    <row r="105" spans="1:21">
       <c r="A105" s="16" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C105" s="19">
         <v>20</v>
@@ -8322,29 +7995,29 @@
       <c r="E105" s="19">
         <v>2025</v>
       </c>
-      <c r="F105" s="25">
+      <c r="F105" s="53">
         <v>-0.60299999999999998</v>
       </c>
-      <c r="G105" s="50">
+      <c r="G105" s="45">
         <v>39.625</v>
       </c>
       <c r="H105" s="18">
         <v>355000</v>
       </c>
       <c r="I105" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J105" s="19">
+        <v>1</v>
+      </c>
+      <c r="K105" s="19">
+        <v>1</v>
+      </c>
+      <c r="L105" s="19">
+        <v>3</v>
+      </c>
+      <c r="M105" s="21" t="s">
         <v>24</v>
-      </c>
-      <c r="J105" s="19">
-        <v>1</v>
-      </c>
-      <c r="K105" s="19">
-        <v>1</v>
-      </c>
-      <c r="L105" s="19">
-        <v>3</v>
-      </c>
-      <c r="M105" s="21" t="s">
-        <v>25</v>
       </c>
       <c r="N105" s="19">
         <v>320</v>
@@ -8371,12 +8044,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="15">
+    <row r="106" spans="1:21">
       <c r="A106" s="16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="C106" s="19">
         <v>20</v>
@@ -8387,17 +8060,17 @@
       <c r="E106" s="19">
         <v>2025</v>
       </c>
-      <c r="F106" s="25">
+      <c r="F106" s="53">
         <v>-0.72</v>
       </c>
-      <c r="G106" s="45">
+      <c r="G106" s="40">
         <v>39.470999999999997</v>
       </c>
       <c r="H106" s="18">
         <v>198000</v>
       </c>
       <c r="I106" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J106" s="19">
         <v>1</v>
@@ -8409,7 +8082,7 @@
         <v>2</v>
       </c>
       <c r="M106" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N106" s="19">
         <v>372</v>
@@ -8436,12 +8109,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="15">
+    <row r="107" spans="1:21">
       <c r="A107" s="1" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="B107" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="C107">
         <v>20</v>
@@ -8452,17 +8125,17 @@
       <c r="E107">
         <v>2025</v>
       </c>
-      <c r="F107" s="44">
+      <c r="F107" s="58">
         <v>-0.161</v>
       </c>
-      <c r="G107" s="53">
+      <c r="G107" s="48">
         <v>39.764000000000003</v>
       </c>
       <c r="H107" s="2">
         <v>135000</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -8474,7 +8147,7 @@
         <v>1</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N107">
         <v>57</v>
@@ -8501,12 +8174,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="15">
+    <row r="108" spans="1:21">
       <c r="A108" s="16" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C108" s="19">
         <v>20</v>
@@ -8517,17 +8190,17 @@
       <c r="E108" s="19">
         <v>2025</v>
       </c>
-      <c r="F108" s="25">
+      <c r="F108" s="53">
         <v>-0.59499999999999997</v>
       </c>
-      <c r="G108" s="45">
+      <c r="G108" s="40">
         <v>39.700000000000003</v>
       </c>
       <c r="H108" s="2">
         <v>207999</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J108" s="19">
         <v>0</v>
@@ -8564,12 +8237,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="15">
+    <row r="109" spans="1:21">
       <c r="A109" s="16" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C109" s="19">
         <v>20</v>
@@ -8580,17 +8253,17 @@
       <c r="E109" s="19">
         <v>2025</v>
       </c>
-      <c r="F109" s="25">
+      <c r="F109" s="53">
         <v>-0.60299999999999998</v>
       </c>
-      <c r="G109" s="45">
+      <c r="G109" s="40">
         <v>39.691000000000003</v>
       </c>
       <c r="H109" s="18">
         <v>245000</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J109">
         <v>2</v>
@@ -8602,7 +8275,7 @@
         <v>2</v>
       </c>
       <c r="M109" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N109">
         <v>307</v>
@@ -8629,12 +8302,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="15">
+    <row r="110" spans="1:21">
       <c r="A110" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="B110" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C110" s="19">
         <v>20</v>
@@ -8645,17 +8318,17 @@
       <c r="E110" s="19">
         <v>2025</v>
       </c>
-      <c r="F110" s="25">
+      <c r="F110" s="53">
         <v>-0.34699999999999998</v>
       </c>
-      <c r="G110" s="45">
+      <c r="G110" s="40">
         <v>39.457999999999998</v>
       </c>
       <c r="H110" s="18">
         <v>1390000</v>
       </c>
       <c r="I110" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -8667,7 +8340,7 @@
         <v>6</v>
       </c>
       <c r="M110" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N110">
         <v>368</v>
@@ -8694,12 +8367,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="15">
+    <row r="111" spans="1:21">
       <c r="A111" s="16" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="B111" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C111" s="19">
         <v>20</v>
@@ -8710,29 +8383,29 @@
       <c r="E111" s="19">
         <v>2025</v>
       </c>
-      <c r="F111" s="25">
+      <c r="F111" s="53">
         <v>-0.34899999999999998</v>
       </c>
-      <c r="G111" s="45">
+      <c r="G111" s="40">
         <v>39.457000000000001</v>
       </c>
       <c r="H111" s="18">
         <v>1100000</v>
       </c>
       <c r="I111" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111" t="s">
         <v>24</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-      <c r="L111">
-        <v>2</v>
-      </c>
-      <c r="M111" t="s">
-        <v>25</v>
       </c>
       <c r="N111">
         <v>109</v>
@@ -8759,12 +8432,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="15">
+    <row r="112" spans="1:21">
       <c r="A112" s="29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C112" s="29">
         <v>13</v>
@@ -8775,17 +8448,17 @@
       <c r="E112" s="29">
         <v>2025</v>
       </c>
-      <c r="F112" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="G112" s="51">
+      <c r="F112" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="G112" s="46">
         <v>39.477021000000001</v>
       </c>
       <c r="H112" s="30">
         <v>1050000</v>
       </c>
-      <c r="I112" s="42" t="s">
-        <v>24</v>
+      <c r="I112" s="38" t="s">
+        <v>23</v>
       </c>
       <c r="J112" s="29">
         <v>0</v>
@@ -8796,8 +8469,8 @@
       <c r="L112" s="29">
         <v>4</v>
       </c>
-      <c r="M112" s="42" t="s">
-        <v>169</v>
+      <c r="M112" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="N112" s="29">
         <v>188</v>
@@ -8805,31 +8478,31 @@
       <c r="O112" s="29">
         <v>2</v>
       </c>
-      <c r="P112" s="41">
+      <c r="P112" s="37">
         <v>0</v>
       </c>
       <c r="Q112" s="29">
         <v>3</v>
       </c>
-      <c r="R112" s="41">
-        <v>1</v>
-      </c>
-      <c r="S112" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="T112" s="41">
-        <v>1</v>
-      </c>
-      <c r="U112" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" ht="15">
+      <c r="R112" s="37">
+        <v>1</v>
+      </c>
+      <c r="S112" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="T112" s="37">
+        <v>1</v>
+      </c>
+      <c r="U112" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21">
       <c r="A113" s="29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C113" s="29">
         <v>31</v>
@@ -8840,17 +8513,17 @@
       <c r="E113" s="29">
         <v>2025</v>
       </c>
-      <c r="F113" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G113" s="51">
+      <c r="F113" s="59">
+        <v>-0.38301771914284</v>
+      </c>
+      <c r="G113" s="46">
         <v>39.471549501159402</v>
       </c>
       <c r="H113" s="30">
         <v>450000</v>
       </c>
-      <c r="I113" s="42" t="s">
-        <v>35</v>
+      <c r="I113" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="J113" s="29">
         <v>0</v>
@@ -8861,8 +8534,8 @@
       <c r="L113" s="29">
         <v>2</v>
       </c>
-      <c r="M113" s="42" t="s">
-        <v>39</v>
+      <c r="M113" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="N113" s="29">
         <v>100</v>
@@ -8870,31 +8543,31 @@
       <c r="O113" s="29">
         <v>1</v>
       </c>
-      <c r="P113" s="41">
+      <c r="P113" s="37">
         <v>0</v>
       </c>
       <c r="Q113" s="29">
         <v>2</v>
       </c>
-      <c r="R113" s="41">
-        <v>1</v>
-      </c>
-      <c r="S113" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="T113" s="41">
-        <v>1</v>
-      </c>
-      <c r="U113" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" ht="15">
+      <c r="R113" s="37">
+        <v>1</v>
+      </c>
+      <c r="S113" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="T113" s="37">
+        <v>1</v>
+      </c>
+      <c r="U113" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114" s="29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C114" s="29">
         <v>21</v>
@@ -8905,17 +8578,17 @@
       <c r="E114" s="29">
         <v>2025</v>
       </c>
-      <c r="F114" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="G114" s="51">
+      <c r="F114" s="59">
+        <v>-0.32991775431214598</v>
+      </c>
+      <c r="G114" s="46">
         <v>39.478007100888497</v>
       </c>
       <c r="H114" s="30">
         <v>247000</v>
       </c>
-      <c r="I114" s="42" t="s">
-        <v>35</v>
+      <c r="I114" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="J114" s="29">
         <v>0</v>
@@ -8926,8 +8599,8 @@
       <c r="L114" s="29">
         <v>2</v>
       </c>
-      <c r="M114" s="42" t="s">
-        <v>46</v>
+      <c r="M114" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="N114" s="29">
         <v>100</v>
@@ -8935,31 +8608,31 @@
       <c r="O114" s="29">
         <v>1</v>
       </c>
-      <c r="P114" s="41">
+      <c r="P114" s="37">
         <v>0</v>
       </c>
       <c r="Q114" s="29">
         <v>4</v>
       </c>
-      <c r="R114" s="41">
-        <v>1</v>
-      </c>
-      <c r="S114" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="T114" s="41">
-        <v>1</v>
-      </c>
-      <c r="U114" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" ht="15">
+      <c r="R114" s="37">
+        <v>1</v>
+      </c>
+      <c r="S114" s="37">
+        <v>4.3</v>
+      </c>
+      <c r="T114" s="37">
+        <v>1</v>
+      </c>
+      <c r="U114" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21">
       <c r="A115" s="29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C115" s="29">
         <v>12</v>
@@ -8970,17 +8643,17 @@
       <c r="E115" s="29">
         <v>2025</v>
       </c>
-      <c r="F115" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="G115" s="51">
+      <c r="F115" s="59">
+        <v>-0.36489214852530899</v>
+      </c>
+      <c r="G115" s="46">
         <v>39.460194604079199</v>
       </c>
       <c r="H115" s="30">
         <v>520000</v>
       </c>
-      <c r="I115" s="42" t="s">
-        <v>35</v>
+      <c r="I115" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="J115" s="29">
         <v>1</v>
@@ -8991,8 +8664,8 @@
       <c r="L115" s="29">
         <v>2</v>
       </c>
-      <c r="M115" s="42" t="s">
-        <v>46</v>
+      <c r="M115" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="N115" s="29">
         <v>122</v>
@@ -9000,31 +8673,31 @@
       <c r="O115" s="29">
         <v>1</v>
       </c>
-      <c r="P115" s="41">
+      <c r="P115" s="37">
         <v>0</v>
       </c>
       <c r="Q115" s="29">
         <v>3</v>
       </c>
-      <c r="R115" s="41">
-        <v>1</v>
-      </c>
-      <c r="S115" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="T115" s="41">
-        <v>1</v>
-      </c>
-      <c r="U115" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" ht="15">
+      <c r="R115" s="37">
+        <v>1</v>
+      </c>
+      <c r="S115" s="37">
+        <v>2.91</v>
+      </c>
+      <c r="T115" s="37">
+        <v>1</v>
+      </c>
+      <c r="U115" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21">
       <c r="A116" s="29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C116" s="29">
         <v>8</v>
@@ -9035,17 +8708,17 @@
       <c r="E116" s="29">
         <v>2024</v>
       </c>
-      <c r="F116" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="G116" s="51">
+      <c r="F116" s="59">
+        <v>-0.37950458238285001</v>
+      </c>
+      <c r="G116" s="46">
         <v>39.477514375442098</v>
       </c>
       <c r="H116" s="30">
         <v>289000</v>
       </c>
-      <c r="I116" s="42" t="s">
-        <v>24</v>
+      <c r="I116" s="38" t="s">
+        <v>23</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -9056,8 +8729,8 @@
       <c r="L116" s="29">
         <v>1</v>
       </c>
-      <c r="M116" s="42" t="s">
-        <v>27</v>
+      <c r="M116" s="38" t="s">
+        <v>25</v>
       </c>
       <c r="N116" s="29">
         <v>70</v>
@@ -9065,31 +8738,31 @@
       <c r="O116" s="29">
         <v>4</v>
       </c>
-      <c r="P116" s="41">
+      <c r="P116" s="37">
         <v>1</v>
       </c>
       <c r="Q116" s="29">
         <v>1</v>
       </c>
-      <c r="R116" s="41">
-        <v>0</v>
-      </c>
-      <c r="S116" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="T116" s="41">
-        <v>1</v>
-      </c>
-      <c r="U116" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" ht="15">
+      <c r="R116" s="37">
+        <v>0</v>
+      </c>
+      <c r="S116" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="T116" s="37">
+        <v>1</v>
+      </c>
+      <c r="U116" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21">
       <c r="A117" s="29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C117" s="29">
         <v>20</v>
@@ -9100,17 +8773,17 @@
       <c r="E117" s="29">
         <v>2025</v>
       </c>
-      <c r="F117" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="G117" s="51">
+      <c r="F117" s="59">
+        <v>-0.349256989249566</v>
+      </c>
+      <c r="G117" s="46">
         <v>39.4613505878038</v>
       </c>
       <c r="H117" s="30">
         <v>605000</v>
       </c>
-      <c r="I117" s="42" t="s">
-        <v>24</v>
+      <c r="I117" s="38" t="s">
+        <v>23</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -9121,8 +8794,8 @@
       <c r="L117" s="29">
         <v>2</v>
       </c>
-      <c r="M117" s="42" t="s">
-        <v>27</v>
+      <c r="M117" s="38" t="s">
+        <v>25</v>
       </c>
       <c r="N117" s="29">
         <v>137</v>
@@ -9130,31 +8803,31 @@
       <c r="O117" s="29">
         <v>6</v>
       </c>
-      <c r="P117" s="41">
+      <c r="P117" s="37">
         <v>0</v>
       </c>
       <c r="Q117" s="29">
         <v>4</v>
       </c>
-      <c r="R117" s="41">
-        <v>1</v>
-      </c>
-      <c r="S117" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="T117" s="41">
-        <v>1</v>
-      </c>
-      <c r="U117" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" ht="15">
+      <c r="R117" s="37">
+        <v>1</v>
+      </c>
+      <c r="S117" s="37">
+        <v>5</v>
+      </c>
+      <c r="T117" s="37">
+        <v>1</v>
+      </c>
+      <c r="U117" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118" s="29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C118" s="29">
         <v>21</v>
@@ -9165,17 +8838,17 @@
       <c r="E118" s="29">
         <v>2025</v>
       </c>
-      <c r="F118" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="G118" s="51">
+      <c r="F118" s="59">
+        <v>-0.39251761993392298</v>
+      </c>
+      <c r="G118" s="46">
         <v>39.475537171613603</v>
       </c>
       <c r="H118" s="30">
         <v>535000</v>
       </c>
-      <c r="I118" s="42" t="s">
-        <v>24</v>
+      <c r="I118" s="38" t="s">
+        <v>23</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -9186,8 +8859,8 @@
       <c r="L118" s="29">
         <v>2</v>
       </c>
-      <c r="M118" s="42" t="s">
-        <v>46</v>
+      <c r="M118" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="N118" s="29">
         <v>122</v>
@@ -9195,31 +8868,31 @@
       <c r="O118" s="29">
         <v>3</v>
       </c>
-      <c r="P118" s="41">
+      <c r="P118" s="37">
         <v>0</v>
       </c>
       <c r="Q118" s="29">
         <v>3</v>
       </c>
-      <c r="R118" s="41">
-        <v>1</v>
-      </c>
-      <c r="S118" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="T118" s="41">
-        <v>1</v>
-      </c>
-      <c r="U118" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" ht="15">
+      <c r="R118" s="37">
+        <v>1</v>
+      </c>
+      <c r="S118" s="37">
+        <v>3</v>
+      </c>
+      <c r="T118" s="37">
+        <v>1</v>
+      </c>
+      <c r="U118" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21">
       <c r="A119" s="29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C119" s="29">
         <v>11</v>
@@ -9230,29 +8903,29 @@
       <c r="E119" s="29">
         <v>2025</v>
       </c>
-      <c r="F119" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="G119" s="51">
+      <c r="F119" s="59">
+        <v>-0.35702367575600202</v>
+      </c>
+      <c r="G119" s="46">
         <v>39.469747160448399</v>
       </c>
       <c r="H119" s="30">
         <v>780000</v>
       </c>
-      <c r="I119" s="42" t="s">
+      <c r="I119" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119" s="29">
+        <v>1</v>
+      </c>
+      <c r="L119" s="29">
+        <v>2</v>
+      </c>
+      <c r="M119" s="38" t="s">
         <v>24</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119" s="29">
-        <v>1</v>
-      </c>
-      <c r="L119" s="29">
-        <v>2</v>
-      </c>
-      <c r="M119" s="42" t="s">
-        <v>25</v>
       </c>
       <c r="N119" s="29">
         <v>173</v>
@@ -9260,31 +8933,31 @@
       <c r="O119" s="29">
         <v>7</v>
       </c>
-      <c r="P119" s="41">
+      <c r="P119" s="37">
         <v>0</v>
       </c>
       <c r="Q119" s="29">
         <v>4</v>
       </c>
-      <c r="R119" s="41">
-        <v>1</v>
-      </c>
-      <c r="S119" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="T119" s="41">
-        <v>1</v>
-      </c>
-      <c r="U119" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" ht="15">
+      <c r="R119" s="37">
+        <v>1</v>
+      </c>
+      <c r="S119" s="37">
+        <v>3.29</v>
+      </c>
+      <c r="T119" s="37">
+        <v>1</v>
+      </c>
+      <c r="U119" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21">
       <c r="A120" s="29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="C120" s="29">
         <v>11</v>
@@ -9295,17 +8968,17 @@
       <c r="E120" s="29">
         <v>2025</v>
       </c>
-      <c r="F120" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="G120" s="51">
+      <c r="F120" s="59">
+        <v>-0.46350367691793098</v>
+      </c>
+      <c r="G120" s="46">
         <v>39.592177882568699</v>
       </c>
       <c r="H120" s="30">
         <v>260000</v>
       </c>
-      <c r="I120" s="42" t="s">
-        <v>35</v>
+      <c r="I120" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -9316,8 +8989,8 @@
       <c r="L120" s="29">
         <v>2</v>
       </c>
-      <c r="M120" s="42" t="s">
-        <v>46</v>
+      <c r="M120" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="N120" s="29">
         <v>140</v>
@@ -9325,31 +8998,31 @@
       <c r="O120" s="29">
         <v>0</v>
       </c>
-      <c r="P120" s="41">
+      <c r="P120" s="37">
         <v>0</v>
       </c>
       <c r="Q120" s="29">
         <v>3</v>
       </c>
-      <c r="R120" s="41">
-        <v>0</v>
-      </c>
-      <c r="S120" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="T120" s="41">
-        <v>0</v>
-      </c>
-      <c r="U120" s="41">
+      <c r="R120" s="37">
+        <v>0</v>
+      </c>
+      <c r="S120" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="T120" s="37">
+        <v>0</v>
+      </c>
+      <c r="U120" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:21" ht="16.5" customHeight="1">
       <c r="A121" s="29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C121" s="29">
         <v>10</v>
@@ -9360,17 +9033,17 @@
       <c r="E121" s="29">
         <v>2025</v>
       </c>
-      <c r="F121" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="G121" s="51">
+      <c r="F121" s="59">
+        <v>-0.32684636596238897</v>
+      </c>
+      <c r="G121" s="46">
         <v>39.465829619725803</v>
       </c>
       <c r="H121" s="30">
         <v>350000</v>
       </c>
-      <c r="I121" s="42" t="s">
-        <v>24</v>
+      <c r="I121" s="38" t="s">
+        <v>23</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -9381,8 +9054,8 @@
       <c r="L121" s="29">
         <v>2</v>
       </c>
-      <c r="M121" s="42" t="s">
-        <v>33</v>
+      <c r="M121" s="38" t="s">
+        <v>28</v>
       </c>
       <c r="N121" s="29">
         <v>76</v>
@@ -9390,31 +9063,31 @@
       <c r="O121" s="29">
         <v>0</v>
       </c>
-      <c r="P121" s="41">
+      <c r="P121" s="37">
         <v>0</v>
       </c>
       <c r="Q121" s="29">
         <v>3</v>
       </c>
-      <c r="R121" s="41">
-        <v>0</v>
-      </c>
-      <c r="S121" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="T121" s="41">
-        <v>1</v>
-      </c>
-      <c r="U121" s="41">
+      <c r="R121" s="37">
+        <v>0</v>
+      </c>
+      <c r="S121" s="37">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="T121" s="37">
+        <v>1</v>
+      </c>
+      <c r="U121" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:21" ht="16.5" customHeight="1">
       <c r="A122" t="s">
+        <v>31</v>
+      </c>
+      <c r="B122" t="s">
         <v>40</v>
-      </c>
-      <c r="B122" t="s">
-        <v>57</v>
       </c>
       <c r="C122">
         <v>20</v>
@@ -9425,17 +9098,17 @@
       <c r="E122">
         <v>2025</v>
       </c>
-      <c r="F122" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="G122" s="52">
+      <c r="F122" s="58">
+        <v>-0.47950187541283001</v>
+      </c>
+      <c r="G122" s="47">
         <v>39.434475090925197</v>
       </c>
       <c r="H122" s="2">
         <v>190000</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -9447,7 +9120,7 @@
         <v>2</v>
       </c>
       <c r="M122" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N122">
         <v>100</v>
@@ -9474,12 +9147,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="15">
+    <row r="123" spans="1:21">
       <c r="A123" t="s">
+        <v>31</v>
+      </c>
+      <c r="B123" t="s">
         <v>40</v>
-      </c>
-      <c r="B123" t="s">
-        <v>57</v>
       </c>
       <c r="C123">
         <v>20</v>
@@ -9490,17 +9163,17 @@
       <c r="E123">
         <v>2025</v>
       </c>
-      <c r="F123" s="4">
+      <c r="F123" s="60">
         <v>-0.47348836087919899</v>
       </c>
-      <c r="G123" s="50">
+      <c r="G123" s="45">
         <v>39.433116102765197</v>
       </c>
       <c r="H123">
         <v>172000</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -9512,7 +9185,7 @@
         <v>2</v>
       </c>
       <c r="M123" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N123">
         <v>92</v>
@@ -9539,12 +9212,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="15">
+    <row r="124" spans="1:21">
       <c r="A124" t="s">
+        <v>31</v>
+      </c>
+      <c r="B124" t="s">
         <v>40</v>
-      </c>
-      <c r="B124" t="s">
-        <v>57</v>
       </c>
       <c r="C124">
         <v>20</v>
@@ -9555,17 +9228,17 @@
       <c r="E124">
         <v>2025</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G124" s="50">
+      <c r="F124" s="60">
+        <v>-0.479823737864363</v>
+      </c>
+      <c r="G124" s="45">
         <v>39.430460198225198</v>
       </c>
       <c r="H124">
         <v>185000</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -9577,7 +9250,7 @@
         <v>1</v>
       </c>
       <c r="M124" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N124">
         <v>50</v>
@@ -9604,12 +9277,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="15">
+    <row r="125" spans="1:21">
       <c r="A125" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" t="s">
         <v>40</v>
-      </c>
-      <c r="B125" t="s">
-        <v>57</v>
       </c>
       <c r="C125">
         <v>20</v>
@@ -9620,17 +9293,17 @@
       <c r="E125">
         <v>2025</v>
       </c>
-      <c r="F125" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G125" s="50">
+      <c r="F125" s="60">
+        <v>-0.46938795521254001</v>
+      </c>
+      <c r="G125" s="45">
         <v>39.434902624776299</v>
       </c>
       <c r="H125">
         <v>126000</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -9642,7 +9315,7 @@
         <v>3</v>
       </c>
       <c r="M125" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N125">
         <v>83</v>
@@ -9669,12 +9342,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="15">
+    <row r="126" spans="1:21">
       <c r="A126" t="s">
+        <v>31</v>
+      </c>
+      <c r="B126" t="s">
         <v>40</v>
-      </c>
-      <c r="B126" t="s">
-        <v>57</v>
       </c>
       <c r="C126">
         <v>20</v>
@@ -9685,17 +9358,17 @@
       <c r="E126">
         <v>2025</v>
       </c>
-      <c r="F126" s="4">
+      <c r="F126" s="60">
         <v>-0.46657558487282602</v>
       </c>
-      <c r="G126" s="50">
+      <c r="G126" s="45">
         <v>39.424516712922603</v>
       </c>
       <c r="H126">
         <v>240000</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -9707,7 +9380,7 @@
         <v>2</v>
       </c>
       <c r="M126" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N126">
         <v>94</v>
@@ -9734,12 +9407,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="15">
+    <row r="127" spans="1:21">
       <c r="A127" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" t="s">
         <v>40</v>
-      </c>
-      <c r="B127" t="s">
-        <v>57</v>
       </c>
       <c r="C127">
         <v>20</v>
@@ -9750,17 +9423,17 @@
       <c r="E127">
         <v>2025</v>
       </c>
-      <c r="F127" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G127" s="50">
+      <c r="F127" s="60">
+        <v>-0.47839876144987697</v>
+      </c>
+      <c r="G127" s="45">
         <v>39.433479194448303</v>
       </c>
       <c r="H127">
         <v>230000</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -9772,7 +9445,7 @@
         <v>2</v>
       </c>
       <c r="M127" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N127">
         <v>96</v>
@@ -9799,12 +9472,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="15">
+    <row r="128" spans="1:21">
       <c r="A128" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" t="s">
         <v>40</v>
-      </c>
-      <c r="B128" t="s">
-        <v>57</v>
       </c>
       <c r="C128">
         <v>20</v>
@@ -9815,17 +9488,17 @@
       <c r="E128">
         <v>2025</v>
       </c>
-      <c r="F128" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G128" s="50">
+      <c r="F128" s="60">
+        <v>-0.466171910494808</v>
+      </c>
+      <c r="G128" s="45">
         <v>39.439948618449598</v>
       </c>
       <c r="H128">
         <v>130000</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -9837,7 +9510,7 @@
         <v>1</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N128">
         <v>80</v>
@@ -9864,12 +9537,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="15">
+    <row r="129" spans="1:21">
       <c r="A129" t="s">
+        <v>31</v>
+      </c>
+      <c r="B129" t="s">
         <v>40</v>
-      </c>
-      <c r="B129" t="s">
-        <v>57</v>
       </c>
       <c r="C129">
         <v>20</v>
@@ -9880,17 +9553,17 @@
       <c r="E129">
         <v>2025</v>
       </c>
-      <c r="F129" s="4">
+      <c r="F129" s="60">
         <v>-0.473490055050932</v>
       </c>
-      <c r="G129" s="50">
+      <c r="G129" s="45">
         <v>39.431741707370001</v>
       </c>
       <c r="H129">
         <v>210000</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -9902,7 +9575,7 @@
         <v>2</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N129">
         <v>100</v>
@@ -9929,12 +9602,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="15">
+    <row r="130" spans="1:21">
       <c r="A130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" t="s">
         <v>40</v>
-      </c>
-      <c r="B130" t="s">
-        <v>57</v>
       </c>
       <c r="C130">
         <v>20</v>
@@ -9945,17 +9618,17 @@
       <c r="E130">
         <v>2025</v>
       </c>
-      <c r="F130" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G130" s="50">
+      <c r="F130" s="60">
+        <v>-0.475835047805996</v>
+      </c>
+      <c r="G130" s="45">
         <v>39.429876793281899</v>
       </c>
       <c r="H130">
         <v>128100</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -9967,7 +9640,7 @@
         <v>2</v>
       </c>
       <c r="M130" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N130">
         <v>106</v>
@@ -9994,12 +9667,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="15">
+    <row r="131" spans="1:21">
       <c r="A131" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B131" t="s">
         <v>40</v>
-      </c>
-      <c r="B131" t="s">
-        <v>57</v>
       </c>
       <c r="C131">
         <v>20</v>
@@ -10010,17 +9683,17 @@
       <c r="E131">
         <v>2025</v>
       </c>
-      <c r="F131" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G131" s="50">
+      <c r="F131" s="60">
+        <v>-0.46306052086821697</v>
+      </c>
+      <c r="G131" s="45">
         <v>39.440197571595398</v>
       </c>
       <c r="H131">
         <v>75000</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -10032,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="M131" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N131">
         <v>58</v>
@@ -10059,12 +9732,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="15">
+    <row r="132" spans="1:21">
       <c r="A132" s="6" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="C132" s="7">
         <v>20</v>
@@ -10075,17 +9748,17 @@
       <c r="E132" s="7">
         <v>2025</v>
       </c>
-      <c r="F132" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="G132" s="58">
+      <c r="F132" s="61">
+        <v>-0.42104399999999997</v>
+      </c>
+      <c r="G132" s="50">
         <v>39.476599999999998</v>
       </c>
       <c r="H132" s="8">
         <v>105000</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J132" s="7">
         <v>1</v>
@@ -10097,7 +9770,7 @@
         <v>2</v>
       </c>
       <c r="M132" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N132" s="7">
         <v>100</v>
@@ -10114,8 +9787,8 @@
       <c r="R132" s="7">
         <v>1</v>
       </c>
-      <c r="S132" s="7" t="s">
-        <v>199</v>
+      <c r="S132" s="7">
+        <v>4.2300000000000004</v>
       </c>
       <c r="T132" s="7">
         <v>0</v>
@@ -10124,12 +9797,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="15">
+    <row r="133" spans="1:21">
       <c r="A133" s="10" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="C133" s="11">
         <v>20</v>
@@ -10140,17 +9813,17 @@
       <c r="E133" s="11">
         <v>2025</v>
       </c>
-      <c r="F133" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="G133" s="59">
+      <c r="F133" s="62">
+        <v>-0.41910799999999998</v>
+      </c>
+      <c r="G133" s="51">
         <v>39.473241999999999</v>
       </c>
       <c r="H133" s="11">
         <v>130000</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J133" s="11">
         <v>0</v>
@@ -10162,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="M133" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N133" s="11">
         <v>91</v>
@@ -10179,8 +9852,8 @@
       <c r="R133" s="11">
         <v>0</v>
       </c>
-      <c r="S133" s="54" t="s">
-        <v>201</v>
+      <c r="S133" s="49">
+        <v>4.1500000000000004</v>
       </c>
       <c r="T133" s="11">
         <v>0</v>
@@ -10189,12 +9862,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="15">
+    <row r="134" spans="1:21">
       <c r="A134" s="10" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="C134" s="11">
         <v>20</v>
@@ -10205,17 +9878,17 @@
       <c r="E134" s="11">
         <v>2025</v>
       </c>
-      <c r="F134" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="G134" s="59">
+      <c r="F134" s="62">
+        <v>-0.41486600000000001</v>
+      </c>
+      <c r="G134" s="51">
         <v>39.473515999999996</v>
       </c>
       <c r="H134" s="12">
         <v>149000</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J134" s="11">
         <v>0</v>
@@ -10227,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="M134" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N134" s="11">
         <v>75</v>
@@ -10244,8 +9917,8 @@
       <c r="R134" s="11">
         <v>0</v>
       </c>
-      <c r="S134" s="11" t="s">
-        <v>203</v>
+      <c r="S134" s="11">
+        <v>3.43</v>
       </c>
       <c r="T134" s="7">
         <v>0</v>
@@ -10254,12 +9927,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="15">
+    <row r="135" spans="1:21">
       <c r="A135" s="10" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="C135" s="11">
         <v>20</v>
@@ -10270,17 +9943,17 @@
       <c r="E135" s="11">
         <v>2025</v>
       </c>
-      <c r="F135" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="G135" s="59">
+      <c r="F135" s="62">
+        <v>-0.42780699999999999</v>
+      </c>
+      <c r="G135" s="51">
         <v>39.468941000000001</v>
       </c>
       <c r="H135" s="11">
         <v>142000</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J135" s="11">
         <v>0</v>
@@ -10292,7 +9965,7 @@
         <v>1</v>
       </c>
       <c r="M135" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N135" s="11">
         <v>89</v>
@@ -10309,8 +9982,8 @@
       <c r="R135" s="11">
         <v>1</v>
       </c>
-      <c r="S135" s="11" t="s">
-        <v>206</v>
+      <c r="S135" s="11">
+        <v>4.8</v>
       </c>
       <c r="T135" s="11">
         <v>0</v>
@@ -10319,12 +9992,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="15">
+    <row r="136" spans="1:21">
       <c r="A136" s="10" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="C136" s="11">
         <v>20</v>
@@ -10335,17 +10008,17 @@
       <c r="E136" s="11">
         <v>2025</v>
       </c>
-      <c r="F136" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="G136" s="59">
+      <c r="F136" s="62">
+        <v>-0.41499900000000001</v>
+      </c>
+      <c r="G136" s="51">
         <v>39.474055999999997</v>
       </c>
       <c r="H136" s="12">
         <v>115000</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J136" s="11">
         <v>0</v>
@@ -10357,7 +10030,7 @@
         <v>1</v>
       </c>
       <c r="M136" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N136" s="11">
         <v>75</v>
@@ -10374,8 +10047,8 @@
       <c r="R136" s="11">
         <v>1</v>
       </c>
-      <c r="S136" s="11" t="s">
-        <v>208</v>
+      <c r="S136" s="11">
+        <v>3.11</v>
       </c>
       <c r="T136" s="7">
         <v>0</v>
@@ -10384,12 +10057,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="15">
+    <row r="137" spans="1:21">
       <c r="A137" s="10" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="C137" s="11">
         <v>20</v>
@@ -10400,17 +10073,17 @@
       <c r="E137" s="11">
         <v>2025</v>
       </c>
-      <c r="F137" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="G137" s="59">
+      <c r="F137" s="62">
+        <v>-0.41535499999999997</v>
+      </c>
+      <c r="G137" s="51">
         <v>39.472586999999997</v>
       </c>
       <c r="H137" s="12">
         <v>190000</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J137" s="11">
         <v>0</v>
@@ -10422,7 +10095,7 @@
         <v>1</v>
       </c>
       <c r="M137" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N137" s="11">
         <v>100</v>
@@ -10439,8 +10112,8 @@
       <c r="R137" s="11">
         <v>0</v>
       </c>
-      <c r="S137" s="11" t="s">
-        <v>211</v>
+      <c r="S137" s="11">
+        <v>3.1</v>
       </c>
       <c r="T137" s="11">
         <v>0</v>
@@ -10449,12 +10122,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="15">
+    <row r="138" spans="1:21">
       <c r="A138" s="10" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="C138" s="11">
         <v>5</v>
@@ -10465,17 +10138,17 @@
       <c r="E138" s="11">
         <v>2025</v>
       </c>
-      <c r="F138" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G138" s="59">
+      <c r="F138" s="62">
+        <v>-0.41827700000000001</v>
+      </c>
+      <c r="G138" s="51">
         <v>39.476205999999998</v>
       </c>
       <c r="H138" s="11">
         <v>185000</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J138" s="11">
         <v>0</v>
@@ -10487,7 +10160,7 @@
         <v>1</v>
       </c>
       <c r="M138" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N138" s="11">
         <v>153</v>
@@ -10504,8 +10177,8 @@
       <c r="R138" s="11">
         <v>0</v>
       </c>
-      <c r="S138" s="11" t="s">
-        <v>213</v>
+      <c r="S138" s="11">
+        <v>3.09</v>
       </c>
       <c r="T138" s="7">
         <v>0</v>
@@ -10514,12 +10187,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="15">
+    <row r="139" spans="1:21">
       <c r="A139" s="10" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="C139" s="11">
         <v>6</v>
@@ -10530,17 +10203,17 @@
       <c r="E139" s="11">
         <v>2025</v>
       </c>
-      <c r="F139" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="G139" s="59">
+      <c r="F139" s="62">
+        <v>-0.41857499999999997</v>
+      </c>
+      <c r="G139" s="51">
         <v>39.473084999999998</v>
       </c>
       <c r="H139" s="11">
         <v>180000</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J139" s="11">
         <v>0</v>
@@ -10552,7 +10225,7 @@
         <v>1</v>
       </c>
       <c r="M139" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N139" s="11">
         <v>87</v>
@@ -10569,8 +10242,8 @@
       <c r="R139" s="11">
         <v>1</v>
       </c>
-      <c r="S139" s="11" t="s">
-        <v>215</v>
+      <c r="S139" s="11">
+        <v>3.91</v>
       </c>
       <c r="T139" s="11">
         <v>0</v>
@@ -10579,12 +10252,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="15">
+    <row r="140" spans="1:21">
       <c r="A140" s="10" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="C140" s="11">
         <v>20</v>
@@ -10595,17 +10268,17 @@
       <c r="E140" s="11">
         <v>2025</v>
       </c>
-      <c r="F140" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="G140" s="59">
+      <c r="F140" s="62">
+        <v>-0.42304799999999998</v>
+      </c>
+      <c r="G140" s="51">
         <v>39.477606000000002</v>
       </c>
       <c r="H140" s="11">
         <v>130000</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J140" s="11">
         <v>0</v>
@@ -10617,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="M140" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N140" s="11">
         <v>100</v>
@@ -10634,8 +10307,8 @@
       <c r="R140" s="11">
         <v>0</v>
       </c>
-      <c r="S140" s="11" t="s">
-        <v>211</v>
+      <c r="S140" s="11">
+        <v>3.1</v>
       </c>
       <c r="T140" s="7">
         <v>0</v>
@@ -10644,12 +10317,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="15">
+    <row r="141" spans="1:21">
       <c r="A141" s="14" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="C141" s="15">
         <v>20</v>
@@ -10660,17 +10333,17 @@
       <c r="E141" s="15">
         <v>2025</v>
       </c>
-      <c r="F141" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="G141" s="60">
+      <c r="F141" s="63">
+        <v>-0.41234599999999999</v>
+      </c>
+      <c r="G141" s="52">
         <v>39.473374</v>
       </c>
       <c r="H141" s="15">
         <v>150000</v>
       </c>
       <c r="I141" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J141" s="15">
         <v>0</v>
@@ -10682,7 +10355,7 @@
         <v>1</v>
       </c>
       <c r="M141" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N141" s="15">
         <v>150</v>
@@ -10699,8 +10372,8 @@
       <c r="R141" s="15">
         <v>0</v>
       </c>
-      <c r="S141" s="15" t="s">
-        <v>213</v>
+      <c r="S141" s="15">
+        <v>3.09</v>
       </c>
       <c r="T141" s="11">
         <v>0</v>
@@ -10709,33 +10382,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:21">
+    <row r="145" spans="1:21">
+      <c r="A145" t="e">
+        <f>MODE(A2:A141)</f>
+        <v>#N/A</v>
+      </c>
       <c r="B145" t="e">
         <f>MODE(B2:B141)</f>
         <v>#N/A</v>
       </c>
       <c r="C145">
-        <f>AVERAGE(C2:C141)</f>
+        <f t="shared" ref="C145:H145" si="0">AVERAGE(C2:C141)</f>
         <v>15.657142857142857</v>
       </c>
       <c r="D145">
-        <f>AVERAGE(D2:D141)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="E145">
-        <f>AVERAGE(E2:E141)</f>
+        <f t="shared" si="0"/>
         <v>2022.3857142857144</v>
       </c>
       <c r="F145">
-        <f>AVERAGE(F2:F141)</f>
-        <v>-0.45115280911524108</v>
+        <f t="shared" si="0"/>
+        <v>-0.42304303555463713</v>
       </c>
       <c r="G145">
-        <f>AVERAGE(G2:G141)</f>
-        <v>1658.0724813026106</v>
+        <f t="shared" si="0"/>
+        <v>39.475162666049187</v>
       </c>
       <c r="H145">
-        <f>AVERAGE(H2:H141)</f>
+        <f t="shared" si="0"/>
         <v>343619.40714285715</v>
       </c>
       <c r="I145" t="e">
@@ -10780,7 +10457,7 @@
       </c>
       <c r="S145">
         <f>AVERAGE(S2:S141)</f>
-        <v>11.683025210084033</v>
+        <v>8.7050714285714275</v>
       </c>
       <c r="T145">
         <f>MODE(T2:T141)</f>
@@ -10798,13 +10475,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0295B1-1BB7-41C1-97B3-B7EA26287286}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
@@ -10812,26 +10489,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10839,7 +10516,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10847,7 +10524,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10855,15 +10532,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10871,7 +10548,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10879,7 +10556,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10887,15 +10564,65 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="57.6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="60">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>232</v>
+      <c r="B11" s="39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
